--- a/dependencies/mycobacterium/tbc/h37/script_dependents/Filtered_Regions.xlsx
+++ b/dependencies/mycobacterium/tbc/h37/script_dependents/Filtered_Regions.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\mycobacterium\tbc\h37\script_dependents\script2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/mycobacterium/tbc/h37/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BCBD5B-6500-ED4B-9A65-DF1D3EA714A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="465" windowWidth="20775" windowHeight="14175" tabRatio="500"/>
+    <workbookView xWindow="6180" yWindow="460" windowWidth="20780" windowHeight="14180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="gi|448814763|ref|NC_000962.3|" sheetId="2" r:id="rId1"/>
+    <sheet name="NC_000962.3" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001"/>
   <extLst>
@@ -3596,8 +3597,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5069,149 +5070,149 @@
   </cellXfs>
   <cellStyles count="831">
     <cellStyle name="20% - Accent1" xfId="148" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent1 10" xfId="721"/>
-    <cellStyle name="20% - Accent1 11" xfId="747"/>
-    <cellStyle name="20% - Accent1 12" xfId="777"/>
-    <cellStyle name="20% - Accent1 2" xfId="239"/>
-    <cellStyle name="20% - Accent1 3" xfId="333"/>
-    <cellStyle name="20% - Accent1 4" xfId="347"/>
-    <cellStyle name="20% - Accent1 5" xfId="445"/>
-    <cellStyle name="20% - Accent1 6" xfId="567"/>
-    <cellStyle name="20% - Accent1 7" xfId="657"/>
-    <cellStyle name="20% - Accent1 8" xfId="687"/>
-    <cellStyle name="20% - Accent1 9" xfId="701"/>
+    <cellStyle name="20% - Accent1 10" xfId="721" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent1 11" xfId="747" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent1 12" xfId="777" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="239" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent1 3" xfId="333" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - Accent1 4" xfId="347" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - Accent1 5" xfId="445" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - Accent1 6" xfId="567" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - Accent1 7" xfId="657" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - Accent1 8" xfId="687" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - Accent1 9" xfId="701" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="20% - Accent2" xfId="152" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2 10" xfId="723"/>
-    <cellStyle name="20% - Accent2 11" xfId="749"/>
-    <cellStyle name="20% - Accent2 12" xfId="779"/>
-    <cellStyle name="20% - Accent2 2" xfId="241"/>
-    <cellStyle name="20% - Accent2 3" xfId="335"/>
-    <cellStyle name="20% - Accent2 4" xfId="349"/>
-    <cellStyle name="20% - Accent2 5" xfId="447"/>
-    <cellStyle name="20% - Accent2 6" xfId="569"/>
-    <cellStyle name="20% - Accent2 7" xfId="659"/>
-    <cellStyle name="20% - Accent2 8" xfId="689"/>
-    <cellStyle name="20% - Accent2 9" xfId="703"/>
+    <cellStyle name="20% - Accent2 10" xfId="723" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - Accent2 11" xfId="749" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - Accent2 12" xfId="779" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="241" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% - Accent2 3" xfId="335" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - Accent2 4" xfId="349" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="20% - Accent2 5" xfId="447" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20% - Accent2 6" xfId="569" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - Accent2 7" xfId="659" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="20% - Accent2 8" xfId="689" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="20% - Accent2 9" xfId="703" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="20% - Accent3" xfId="156" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3 10" xfId="725"/>
-    <cellStyle name="20% - Accent3 11" xfId="751"/>
-    <cellStyle name="20% - Accent3 12" xfId="781"/>
-    <cellStyle name="20% - Accent3 2" xfId="243"/>
-    <cellStyle name="20% - Accent3 3" xfId="337"/>
-    <cellStyle name="20% - Accent3 4" xfId="351"/>
-    <cellStyle name="20% - Accent3 5" xfId="449"/>
-    <cellStyle name="20% - Accent3 6" xfId="571"/>
-    <cellStyle name="20% - Accent3 7" xfId="661"/>
-    <cellStyle name="20% - Accent3 8" xfId="691"/>
-    <cellStyle name="20% - Accent3 9" xfId="705"/>
+    <cellStyle name="20% - Accent3 10" xfId="725" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="20% - Accent3 11" xfId="751" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="20% - Accent3 12" xfId="781" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="243" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="20% - Accent3 3" xfId="337" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="20% - Accent3 4" xfId="351" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="20% - Accent3 5" xfId="449" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="20% - Accent3 6" xfId="571" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="20% - Accent3 7" xfId="661" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="20% - Accent3 8" xfId="691" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="20% - Accent3 9" xfId="705" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="20% - Accent4" xfId="160" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4 10" xfId="727"/>
-    <cellStyle name="20% - Accent4 11" xfId="753"/>
-    <cellStyle name="20% - Accent4 12" xfId="783"/>
-    <cellStyle name="20% - Accent4 2" xfId="245"/>
-    <cellStyle name="20% - Accent4 3" xfId="339"/>
-    <cellStyle name="20% - Accent4 4" xfId="353"/>
-    <cellStyle name="20% - Accent4 5" xfId="451"/>
-    <cellStyle name="20% - Accent4 6" xfId="573"/>
-    <cellStyle name="20% - Accent4 7" xfId="663"/>
-    <cellStyle name="20% - Accent4 8" xfId="693"/>
-    <cellStyle name="20% - Accent4 9" xfId="707"/>
+    <cellStyle name="20% - Accent4 10" xfId="727" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="20% - Accent4 11" xfId="753" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="20% - Accent4 12" xfId="783" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="245" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="20% - Accent4 3" xfId="339" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="20% - Accent4 4" xfId="353" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="20% - Accent4 5" xfId="451" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="20% - Accent4 6" xfId="573" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="20% - Accent4 7" xfId="663" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="20% - Accent4 8" xfId="693" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="20% - Accent4 9" xfId="707" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="20% - Accent5" xfId="164" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5 10" xfId="729"/>
-    <cellStyle name="20% - Accent5 11" xfId="755"/>
-    <cellStyle name="20% - Accent5 12" xfId="785"/>
-    <cellStyle name="20% - Accent5 2" xfId="247"/>
-    <cellStyle name="20% - Accent5 3" xfId="341"/>
-    <cellStyle name="20% - Accent5 4" xfId="355"/>
-    <cellStyle name="20% - Accent5 5" xfId="453"/>
-    <cellStyle name="20% - Accent5 6" xfId="575"/>
-    <cellStyle name="20% - Accent5 7" xfId="665"/>
-    <cellStyle name="20% - Accent5 8" xfId="695"/>
-    <cellStyle name="20% - Accent5 9" xfId="709"/>
+    <cellStyle name="20% - Accent5 10" xfId="729" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="20% - Accent5 11" xfId="755" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="20% - Accent5 12" xfId="785" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="247" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="20% - Accent5 3" xfId="341" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="20% - Accent5 4" xfId="355" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="20% - Accent5 5" xfId="453" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="20% - Accent5 6" xfId="575" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="20% - Accent5 7" xfId="665" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="20% - Accent5 8" xfId="695" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - Accent5 9" xfId="709" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="20% - Accent6" xfId="168" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6 10" xfId="731"/>
-    <cellStyle name="20% - Accent6 11" xfId="757"/>
-    <cellStyle name="20% - Accent6 12" xfId="787"/>
-    <cellStyle name="20% - Accent6 2" xfId="249"/>
-    <cellStyle name="20% - Accent6 3" xfId="343"/>
-    <cellStyle name="20% - Accent6 4" xfId="357"/>
-    <cellStyle name="20% - Accent6 5" xfId="455"/>
-    <cellStyle name="20% - Accent6 6" xfId="577"/>
-    <cellStyle name="20% - Accent6 7" xfId="667"/>
-    <cellStyle name="20% - Accent6 8" xfId="697"/>
-    <cellStyle name="20% - Accent6 9" xfId="711"/>
+    <cellStyle name="20% - Accent6 10" xfId="731" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="20% - Accent6 11" xfId="757" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="20% - Accent6 12" xfId="787" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - Accent6 3" xfId="343" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="20% - Accent6 4" xfId="357" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="20% - Accent6 5" xfId="455" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="20% - Accent6 6" xfId="577" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="20% - Accent6 7" xfId="667" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="20% - Accent6 8" xfId="697" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="20% - Accent6 9" xfId="711" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
     <cellStyle name="40% - Accent1" xfId="149" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1 10" xfId="722"/>
-    <cellStyle name="40% - Accent1 11" xfId="748"/>
-    <cellStyle name="40% - Accent1 12" xfId="778"/>
-    <cellStyle name="40% - Accent1 2" xfId="240"/>
-    <cellStyle name="40% - Accent1 3" xfId="334"/>
-    <cellStyle name="40% - Accent1 4" xfId="348"/>
-    <cellStyle name="40% - Accent1 5" xfId="446"/>
-    <cellStyle name="40% - Accent1 6" xfId="568"/>
-    <cellStyle name="40% - Accent1 7" xfId="658"/>
-    <cellStyle name="40% - Accent1 8" xfId="688"/>
-    <cellStyle name="40% - Accent1 9" xfId="702"/>
+    <cellStyle name="40% - Accent1 10" xfId="722" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="40% - Accent1 11" xfId="748" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="40% - Accent1 12" xfId="778" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="240" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="40% - Accent1 3" xfId="334" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="40% - Accent1 4" xfId="348" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="40% - Accent1 5" xfId="446" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - Accent1 6" xfId="568" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - Accent1 7" xfId="658" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="40% - Accent1 8" xfId="688" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="40% - Accent1 9" xfId="702" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
     <cellStyle name="40% - Accent2" xfId="153" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2 10" xfId="724"/>
-    <cellStyle name="40% - Accent2 11" xfId="750"/>
-    <cellStyle name="40% - Accent2 12" xfId="780"/>
-    <cellStyle name="40% - Accent2 2" xfId="242"/>
-    <cellStyle name="40% - Accent2 3" xfId="336"/>
-    <cellStyle name="40% - Accent2 4" xfId="350"/>
-    <cellStyle name="40% - Accent2 5" xfId="448"/>
-    <cellStyle name="40% - Accent2 6" xfId="570"/>
-    <cellStyle name="40% - Accent2 7" xfId="660"/>
-    <cellStyle name="40% - Accent2 8" xfId="690"/>
-    <cellStyle name="40% - Accent2 9" xfId="704"/>
+    <cellStyle name="40% - Accent2 10" xfId="724" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="40% - Accent2 11" xfId="750" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="40% - Accent2 12" xfId="780" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="242" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="40% - Accent2 3" xfId="336" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="40% - Accent2 4" xfId="350" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="40% - Accent2 5" xfId="448" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="40% - Accent2 6" xfId="570" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="40% - Accent2 7" xfId="660" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="40% - Accent2 8" xfId="690" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="40% - Accent2 9" xfId="704" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
     <cellStyle name="40% - Accent3" xfId="157" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3 10" xfId="726"/>
-    <cellStyle name="40% - Accent3 11" xfId="752"/>
-    <cellStyle name="40% - Accent3 12" xfId="782"/>
-    <cellStyle name="40% - Accent3 2" xfId="244"/>
-    <cellStyle name="40% - Accent3 3" xfId="338"/>
-    <cellStyle name="40% - Accent3 4" xfId="352"/>
-    <cellStyle name="40% - Accent3 5" xfId="450"/>
-    <cellStyle name="40% - Accent3 6" xfId="572"/>
-    <cellStyle name="40% - Accent3 7" xfId="662"/>
-    <cellStyle name="40% - Accent3 8" xfId="692"/>
-    <cellStyle name="40% - Accent3 9" xfId="706"/>
+    <cellStyle name="40% - Accent3 10" xfId="726" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="40% - Accent3 11" xfId="752" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="40% - Accent3 12" xfId="782" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="244" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="40% - Accent3 3" xfId="338" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="40% - Accent3 4" xfId="352" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="40% - Accent3 5" xfId="450" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="40% - Accent3 6" xfId="572" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="40% - Accent3 7" xfId="662" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="40% - Accent3 8" xfId="692" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="40% - Accent3 9" xfId="706" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
     <cellStyle name="40% - Accent4" xfId="161" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4 10" xfId="728"/>
-    <cellStyle name="40% - Accent4 11" xfId="754"/>
-    <cellStyle name="40% - Accent4 12" xfId="784"/>
-    <cellStyle name="40% - Accent4 2" xfId="246"/>
-    <cellStyle name="40% - Accent4 3" xfId="340"/>
-    <cellStyle name="40% - Accent4 4" xfId="354"/>
-    <cellStyle name="40% - Accent4 5" xfId="452"/>
-    <cellStyle name="40% - Accent4 6" xfId="574"/>
-    <cellStyle name="40% - Accent4 7" xfId="664"/>
-    <cellStyle name="40% - Accent4 8" xfId="694"/>
-    <cellStyle name="40% - Accent4 9" xfId="708"/>
+    <cellStyle name="40% - Accent4 10" xfId="728" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="40% - Accent4 11" xfId="754" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="40% - Accent4 12" xfId="784" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="246" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="40% - Accent4 3" xfId="340" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="40% - Accent4 4" xfId="354" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="40% - Accent4 5" xfId="452" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="40% - Accent4 6" xfId="574" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="40% - Accent4 7" xfId="664" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="40% - Accent4 8" xfId="694" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="40% - Accent4 9" xfId="708" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
     <cellStyle name="40% - Accent5" xfId="165" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5 10" xfId="730"/>
-    <cellStyle name="40% - Accent5 11" xfId="756"/>
-    <cellStyle name="40% - Accent5 12" xfId="786"/>
-    <cellStyle name="40% - Accent5 2" xfId="248"/>
-    <cellStyle name="40% - Accent5 3" xfId="342"/>
-    <cellStyle name="40% - Accent5 4" xfId="356"/>
-    <cellStyle name="40% - Accent5 5" xfId="454"/>
-    <cellStyle name="40% - Accent5 6" xfId="576"/>
-    <cellStyle name="40% - Accent5 7" xfId="666"/>
-    <cellStyle name="40% - Accent5 8" xfId="696"/>
-    <cellStyle name="40% - Accent5 9" xfId="710"/>
+    <cellStyle name="40% - Accent5 10" xfId="730" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="40% - Accent5 11" xfId="756" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="40% - Accent5 12" xfId="786" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="248" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="40% - Accent5 3" xfId="342" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="40% - Accent5 4" xfId="356" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="40% - Accent5 5" xfId="454" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="40% - Accent5 6" xfId="576" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="40% - Accent5 7" xfId="666" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="40% - Accent5 8" xfId="696" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="40% - Accent5 9" xfId="710" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
     <cellStyle name="40% - Accent6" xfId="169" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6 10" xfId="732"/>
-    <cellStyle name="40% - Accent6 11" xfId="758"/>
-    <cellStyle name="40% - Accent6 12" xfId="788"/>
-    <cellStyle name="40% - Accent6 2" xfId="250"/>
-    <cellStyle name="40% - Accent6 3" xfId="344"/>
-    <cellStyle name="40% - Accent6 4" xfId="358"/>
-    <cellStyle name="40% - Accent6 5" xfId="456"/>
-    <cellStyle name="40% - Accent6 6" xfId="578"/>
-    <cellStyle name="40% - Accent6 7" xfId="668"/>
-    <cellStyle name="40% - Accent6 8" xfId="698"/>
-    <cellStyle name="40% - Accent6 9" xfId="712"/>
+    <cellStyle name="40% - Accent6 10" xfId="732" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="40% - Accent6 11" xfId="758" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="40% - Accent6 12" xfId="788" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="250" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="40% - Accent6 3" xfId="344" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="40% - Accent6 4" xfId="358" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="40% - Accent6 5" xfId="456" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="40% - Accent6 6" xfId="578" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="40% - Accent6 7" xfId="668" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="40% - Accent6 8" xfId="698" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="40% - Accent6 9" xfId="712" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
     <cellStyle name="60% - Accent1" xfId="150" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Accent2" xfId="154" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Accent3" xfId="158" builtinId="40" customBuiltin="1"/>
@@ -5871,30 +5872,30 @@
     <cellStyle name="Linked Cell" xfId="142" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="138" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="699"/>
-    <cellStyle name="Normal 11" xfId="719"/>
-    <cellStyle name="Normal 12" xfId="745"/>
-    <cellStyle name="Normal 13" xfId="775"/>
-    <cellStyle name="Normal 2" xfId="171"/>
-    <cellStyle name="Normal 3" xfId="237"/>
-    <cellStyle name="Normal 4" xfId="331"/>
-    <cellStyle name="Normal 5" xfId="345"/>
-    <cellStyle name="Normal 6" xfId="443"/>
-    <cellStyle name="Normal 7" xfId="565"/>
-    <cellStyle name="Normal 8" xfId="655"/>
-    <cellStyle name="Normal 9" xfId="685"/>
-    <cellStyle name="Note 10" xfId="700"/>
-    <cellStyle name="Note 11" xfId="720"/>
-    <cellStyle name="Note 12" xfId="746"/>
-    <cellStyle name="Note 13" xfId="776"/>
-    <cellStyle name="Note 2" xfId="172"/>
-    <cellStyle name="Note 3" xfId="238"/>
-    <cellStyle name="Note 4" xfId="332"/>
-    <cellStyle name="Note 5" xfId="346"/>
-    <cellStyle name="Note 6" xfId="444"/>
-    <cellStyle name="Note 7" xfId="566"/>
-    <cellStyle name="Note 8" xfId="656"/>
-    <cellStyle name="Note 9" xfId="686"/>
+    <cellStyle name="Normal 10" xfId="699" xr:uid="{00000000-0005-0000-0000-000023030000}"/>
+    <cellStyle name="Normal 11" xfId="719" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
+    <cellStyle name="Normal 12" xfId="745" xr:uid="{00000000-0005-0000-0000-000025030000}"/>
+    <cellStyle name="Normal 13" xfId="775" xr:uid="{00000000-0005-0000-0000-000026030000}"/>
+    <cellStyle name="Normal 2" xfId="171" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
+    <cellStyle name="Normal 3" xfId="237" xr:uid="{00000000-0005-0000-0000-000028030000}"/>
+    <cellStyle name="Normal 4" xfId="331" xr:uid="{00000000-0005-0000-0000-000029030000}"/>
+    <cellStyle name="Normal 5" xfId="345" xr:uid="{00000000-0005-0000-0000-00002A030000}"/>
+    <cellStyle name="Normal 6" xfId="443" xr:uid="{00000000-0005-0000-0000-00002B030000}"/>
+    <cellStyle name="Normal 7" xfId="565" xr:uid="{00000000-0005-0000-0000-00002C030000}"/>
+    <cellStyle name="Normal 8" xfId="655" xr:uid="{00000000-0005-0000-0000-00002D030000}"/>
+    <cellStyle name="Normal 9" xfId="685" xr:uid="{00000000-0005-0000-0000-00002E030000}"/>
+    <cellStyle name="Note 10" xfId="700" xr:uid="{00000000-0005-0000-0000-00002F030000}"/>
+    <cellStyle name="Note 11" xfId="720" xr:uid="{00000000-0005-0000-0000-000030030000}"/>
+    <cellStyle name="Note 12" xfId="746" xr:uid="{00000000-0005-0000-0000-000031030000}"/>
+    <cellStyle name="Note 13" xfId="776" xr:uid="{00000000-0005-0000-0000-000032030000}"/>
+    <cellStyle name="Note 2" xfId="172" xr:uid="{00000000-0005-0000-0000-000033030000}"/>
+    <cellStyle name="Note 3" xfId="238" xr:uid="{00000000-0005-0000-0000-000034030000}"/>
+    <cellStyle name="Note 4" xfId="332" xr:uid="{00000000-0005-0000-0000-000035030000}"/>
+    <cellStyle name="Note 5" xfId="346" xr:uid="{00000000-0005-0000-0000-000036030000}"/>
+    <cellStyle name="Note 6" xfId="444" xr:uid="{00000000-0005-0000-0000-000037030000}"/>
+    <cellStyle name="Note 7" xfId="566" xr:uid="{00000000-0005-0000-0000-000038030000}"/>
+    <cellStyle name="Note 8" xfId="656" xr:uid="{00000000-0005-0000-0000-000039030000}"/>
+    <cellStyle name="Note 9" xfId="686" xr:uid="{00000000-0005-0000-0000-00003A030000}"/>
     <cellStyle name="Output" xfId="140" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="131" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="146" builtinId="25" customBuiltin="1"/>
@@ -6234,15 +6235,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E144" sqref="E144:E145"/>
+      <selection pane="bottomLeft" activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="9" bestFit="1" customWidth="1"/>
@@ -6251,13 +6252,13 @@
     <col min="9" max="14" width="16" style="9" customWidth="1"/>
     <col min="15" max="21" width="16" style="9" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16" style="9" customWidth="1"/>
-    <col min="23" max="23" width="10.625" style="1"/>
+    <col min="23" max="23" width="10.6640625" style="1"/>
     <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.625" style="1"/>
+    <col min="26" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1154</v>
       </c>
@@ -6337,7 +6338,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -6391,7 +6392,7 @@
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -6441,7 +6442,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -6491,7 +6492,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -6541,7 +6542,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -6591,7 +6592,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="17.25" customHeight="1">
+    <row r="7" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -6641,7 +6642,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -6691,7 +6692,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -6741,7 +6742,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -6791,7 +6792,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -6841,7 +6842,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -6891,7 +6892,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -6941,7 +6942,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -6991,7 +6992,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -7041,7 +7042,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -7091,7 +7092,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -7141,7 +7142,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -7191,7 +7192,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -7241,7 +7242,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -7291,7 +7292,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -7341,7 +7342,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -7391,7 +7392,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -7441,7 +7442,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -7491,7 +7492,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -7541,7 +7542,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -7591,7 +7592,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -7641,7 +7642,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -7691,7 +7692,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -7741,7 +7742,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -7791,7 +7792,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -7841,7 +7842,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -7891,7 +7892,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -7941,7 +7942,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -7991,7 +7992,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -8041,7 +8042,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -8091,7 +8092,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -8141,7 +8142,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -8191,7 +8192,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -8241,7 +8242,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -8291,7 +8292,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -8341,7 +8342,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -8391,7 +8392,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -8441,7 +8442,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
@@ -8491,7 +8492,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
@@ -8541,7 +8542,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
@@ -8591,7 +8592,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>45</v>
       </c>
@@ -8641,7 +8642,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>46</v>
       </c>
@@ -8691,7 +8692,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
@@ -8741,7 +8742,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
@@ -8791,7 +8792,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
@@ -8841,7 +8842,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
@@ -8891,7 +8892,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>51</v>
       </c>
@@ -8941,7 +8942,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
@@ -8991,7 +8992,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
@@ -9041,7 +9042,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
@@ -9091,7 +9092,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>55</v>
       </c>
@@ -9141,7 +9142,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
@@ -9191,7 +9192,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
@@ -9241,7 +9242,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
@@ -9291,7 +9292,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
@@ -9341,7 +9342,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>60</v>
       </c>
@@ -9391,7 +9392,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>61</v>
       </c>
@@ -9441,7 +9442,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>62</v>
       </c>
@@ -9491,7 +9492,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>63</v>
       </c>
@@ -9541,7 +9542,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>64</v>
       </c>
@@ -9591,7 +9592,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>65</v>
       </c>
@@ -9641,7 +9642,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>66</v>
       </c>
@@ -9691,7 +9692,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>67</v>
       </c>
@@ -9741,7 +9742,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>68</v>
       </c>
@@ -9791,7 +9792,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>69</v>
       </c>
@@ -9841,7 +9842,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>70</v>
       </c>
@@ -9891,7 +9892,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>71</v>
       </c>
@@ -9941,7 +9942,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>72</v>
       </c>
@@ -9991,7 +9992,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>73</v>
       </c>
@@ -10041,7 +10042,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>74</v>
       </c>
@@ -10091,7 +10092,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>75</v>
       </c>
@@ -10141,7 +10142,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>76</v>
       </c>
@@ -10191,7 +10192,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>77</v>
       </c>
@@ -10241,7 +10242,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>78</v>
       </c>
@@ -10291,7 +10292,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="81" spans="1:22">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>79</v>
       </c>
@@ -10341,7 +10342,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="82" spans="1:22">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>80</v>
       </c>
@@ -10391,7 +10392,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>81</v>
       </c>
@@ -10441,7 +10442,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="84" spans="1:22">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>82</v>
       </c>
@@ -10491,7 +10492,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>83</v>
       </c>
@@ -10541,7 +10542,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="86" spans="1:22">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>84</v>
       </c>
@@ -10591,7 +10592,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
@@ -10641,7 +10642,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>86</v>
       </c>
@@ -10691,7 +10692,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>87</v>
       </c>
@@ -10741,7 +10742,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>88</v>
       </c>
@@ -10791,7 +10792,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>89</v>
       </c>
@@ -10841,7 +10842,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>90</v>
       </c>
@@ -10891,7 +10892,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="93" spans="1:22">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>91</v>
       </c>
@@ -10941,7 +10942,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>92</v>
       </c>
@@ -10985,7 +10986,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>93</v>
       </c>
@@ -11029,7 +11030,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="96" spans="1:22">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>94</v>
       </c>
@@ -11073,7 +11074,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="97" spans="1:22">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>95</v>
       </c>
@@ -11117,7 +11118,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="98" spans="1:22">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>96</v>
       </c>
@@ -11161,7 +11162,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="99" spans="1:22">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>97</v>
       </c>
@@ -11205,7 +11206,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>98</v>
       </c>
@@ -11249,7 +11250,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="101" spans="1:22">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>99</v>
       </c>
@@ -11293,7 +11294,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="102" spans="1:22">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>100</v>
       </c>
@@ -11337,7 +11338,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="103" spans="1:22">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>101</v>
       </c>
@@ -11381,7 +11382,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="104" spans="1:22">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>102</v>
       </c>
@@ -11425,7 +11426,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="105" spans="1:22">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>103</v>
       </c>
@@ -11469,7 +11470,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="106" spans="1:22">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>104</v>
       </c>
@@ -11513,7 +11514,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="107" spans="1:22">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>105</v>
       </c>
@@ -11557,7 +11558,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="108" spans="1:22">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>106</v>
       </c>
@@ -11601,7 +11602,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="109" spans="1:22">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>107</v>
       </c>
@@ -11645,7 +11646,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="110" spans="1:22">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>108</v>
       </c>
@@ -11689,7 +11690,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="111" spans="1:22">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>109</v>
       </c>
@@ -11733,7 +11734,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="112" spans="1:22">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>110</v>
       </c>
@@ -11777,7 +11778,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="113" spans="1:22">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>111</v>
       </c>
@@ -11821,7 +11822,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="114" spans="1:22">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>112</v>
       </c>
@@ -11865,7 +11866,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="115" spans="1:22">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>113</v>
       </c>
@@ -11909,7 +11910,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="116" spans="1:22">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>114</v>
       </c>
@@ -11953,7 +11954,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="117" spans="1:22">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>115</v>
       </c>
@@ -11997,7 +11998,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="118" spans="1:22">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>116</v>
       </c>
@@ -12041,7 +12042,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="119" spans="1:22">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>117</v>
       </c>
@@ -12085,7 +12086,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="120" spans="1:22">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>118</v>
       </c>
@@ -12129,7 +12130,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="121" spans="1:22">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>119</v>
       </c>
@@ -12173,7 +12174,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="122" spans="1:22">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>120</v>
       </c>
@@ -12217,7 +12218,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="123" spans="1:22">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>121</v>
       </c>
@@ -12261,7 +12262,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="124" spans="1:22">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>122</v>
       </c>
@@ -12305,7 +12306,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="125" spans="1:22">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>123</v>
       </c>
@@ -12349,7 +12350,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="126" spans="1:22">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>124</v>
       </c>
@@ -12393,7 +12394,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="127" spans="1:22">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>125</v>
       </c>
@@ -12437,7 +12438,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="128" spans="1:22">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>126</v>
       </c>
@@ -12481,7 +12482,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="129" spans="1:22">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>127</v>
       </c>
@@ -12525,7 +12526,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="130" spans="1:22">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>128</v>
       </c>
@@ -12569,7 +12570,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="131" spans="1:22">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>129</v>
       </c>
@@ -12613,7 +12614,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="132" spans="1:22">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>130</v>
       </c>
@@ -12657,7 +12658,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="133" spans="1:22">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>131</v>
       </c>
@@ -12701,7 +12702,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="134" spans="1:22">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>132</v>
       </c>
@@ -12745,7 +12746,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="135" spans="1:22">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>133</v>
       </c>
@@ -12789,7 +12790,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="136" spans="1:22">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>134</v>
       </c>
@@ -12833,7 +12834,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="137" spans="1:22">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>135</v>
       </c>
@@ -12877,7 +12878,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="138" spans="1:22">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>136</v>
       </c>
@@ -12921,7 +12922,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="139" spans="1:22">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>137</v>
       </c>
@@ -12965,7 +12966,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="140" spans="1:22">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>137</v>
       </c>
@@ -13009,7 +13010,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="141" spans="1:22">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>138</v>
       </c>
@@ -13053,7 +13054,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="142" spans="1:22">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>139</v>
       </c>
@@ -13097,7 +13098,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="143" spans="1:22">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>139</v>
       </c>
@@ -13141,7 +13142,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="144" spans="1:22">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>140</v>
       </c>
@@ -13185,7 +13186,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="145" spans="1:22">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>141</v>
       </c>
@@ -13229,7 +13230,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="146" spans="1:22">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>142</v>
       </c>
@@ -13270,7 +13271,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="147" spans="1:22">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>143</v>
       </c>
@@ -13311,7 +13312,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="148" spans="1:22">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>144</v>
       </c>
@@ -13352,7 +13353,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="149" spans="1:22">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>145</v>
       </c>
@@ -13393,7 +13394,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="150" spans="1:22">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>146</v>
       </c>
@@ -13434,7 +13435,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="151" spans="1:22">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>147</v>
       </c>
@@ -13475,7 +13476,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="152" spans="1:22">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>148</v>
       </c>
@@ -13510,7 +13511,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="153" spans="1:22">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>149</v>
       </c>
@@ -13545,7 +13546,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="154" spans="1:22">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>150</v>
       </c>
@@ -13580,7 +13581,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="155" spans="1:22">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>151</v>
       </c>
@@ -13615,7 +13616,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="156" spans="1:22">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>152</v>
       </c>
@@ -13650,7 +13651,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="157" spans="1:22">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>153</v>
       </c>
@@ -13685,7 +13686,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="158" spans="1:22">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>154</v>
       </c>
@@ -13717,7 +13718,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="159" spans="1:22">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>155</v>
       </c>
@@ -13749,7 +13750,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="160" spans="1:22">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>156</v>
       </c>
@@ -13781,7 +13782,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>157</v>
       </c>
@@ -13813,7 +13814,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>158</v>
       </c>
@@ -13845,7 +13846,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>159</v>
       </c>
@@ -13877,7 +13878,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>160</v>
       </c>
@@ -13909,7 +13910,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>161</v>
       </c>
@@ -13941,7 +13942,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>162</v>
       </c>
@@ -13973,7 +13974,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>163</v>
       </c>
@@ -14005,7 +14006,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="168" spans="1:21">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>164</v>
       </c>
@@ -14037,7 +14038,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="169" spans="1:21">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>165</v>
       </c>
@@ -14069,7 +14070,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="170" spans="1:21">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>166</v>
       </c>
@@ -14101,7 +14102,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="171" spans="1:21">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>167</v>
       </c>
@@ -14133,7 +14134,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="172" spans="1:21">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>168</v>
       </c>
@@ -14165,7 +14166,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="173" spans="1:21">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>169</v>
       </c>
@@ -14197,7 +14198,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="174" spans="1:21">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>170</v>
       </c>
@@ -14229,7 +14230,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="175" spans="1:21">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
         <v>171</v>
       </c>
@@ -14261,7 +14262,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="176" spans="1:21">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>172</v>
       </c>
@@ -14293,7 +14294,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="177" spans="1:21">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>173</v>
       </c>
@@ -14325,7 +14326,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="178" spans="1:21">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
         <v>174</v>
       </c>
@@ -14357,7 +14358,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="179" spans="1:21">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
         <v>175</v>
       </c>
@@ -14389,7 +14390,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="180" spans="1:21">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>176</v>
       </c>
@@ -14421,7 +14422,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="181" spans="1:21">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>177</v>
       </c>
@@ -14453,7 +14454,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
         <v>178</v>
       </c>
@@ -14485,7 +14486,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>179</v>
       </c>
@@ -14517,7 +14518,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="184" spans="1:21">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>180</v>
       </c>
@@ -14549,7 +14550,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="185" spans="1:21">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>181</v>
       </c>
@@ -14581,7 +14582,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="186" spans="1:21">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
         <v>182</v>
       </c>
@@ -14613,7 +14614,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="187" spans="1:21">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
         <v>183</v>
       </c>
@@ -14645,7 +14646,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="188" spans="1:21">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
         <v>184</v>
       </c>
@@ -14677,7 +14678,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="189" spans="1:21">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>185</v>
       </c>
@@ -14709,7 +14710,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="190" spans="1:21">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
         <v>186</v>
       </c>
@@ -14741,7 +14742,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="191" spans="1:21">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
         <v>187</v>
       </c>
@@ -14773,7 +14774,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="192" spans="1:21">
+    <row r="192" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>188</v>
       </c>
@@ -14805,7 +14806,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="193" spans="1:21">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>189</v>
       </c>
@@ -14838,7 +14839,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="194" spans="1:21">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>190</v>
       </c>
@@ -14871,7 +14872,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="195" spans="1:21">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
         <v>191</v>
       </c>
@@ -14904,7 +14905,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="196" spans="1:21">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>192</v>
       </c>
@@ -14937,7 +14938,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="197" spans="1:21">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>193</v>
       </c>
@@ -14970,7 +14971,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="198" spans="1:21">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
         <v>194</v>
       </c>
@@ -15003,7 +15004,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="199" spans="1:21">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
         <v>195</v>
       </c>
@@ -15036,7 +15037,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="200" spans="1:21">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
         <v>196</v>
       </c>
@@ -15069,7 +15070,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="201" spans="1:21">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
         <v>197</v>
       </c>
@@ -15102,7 +15103,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="202" spans="1:21">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
         <v>198</v>
       </c>
@@ -15135,7 +15136,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="203" spans="1:21">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
         <v>199</v>
       </c>
@@ -15168,7 +15169,7 @@
         <v>55553</v>
       </c>
     </row>
-    <row r="204" spans="1:21">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
         <v>200</v>
       </c>
@@ -15201,7 +15202,7 @@
         <v>71336</v>
       </c>
     </row>
-    <row r="205" spans="1:21">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>201</v>
       </c>
@@ -15234,7 +15235,7 @@
         <v>154283</v>
       </c>
     </row>
-    <row r="206" spans="1:21">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
         <v>202</v>
       </c>
@@ -15267,7 +15268,7 @@
         <v>333637</v>
       </c>
     </row>
-    <row r="207" spans="1:21">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
         <v>203</v>
       </c>
@@ -15300,7 +15301,7 @@
         <v>333640</v>
       </c>
     </row>
-    <row r="208" spans="1:21">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
         <v>204</v>
       </c>
@@ -15333,7 +15334,7 @@
         <v>333641</v>
       </c>
     </row>
-    <row r="209" spans="1:21">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>205</v>
       </c>
@@ -15366,7 +15367,7 @@
         <v>333677</v>
       </c>
     </row>
-    <row r="210" spans="1:21">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
         <v>206</v>
       </c>
@@ -15399,7 +15400,7 @@
         <v>333683</v>
       </c>
     </row>
-    <row r="211" spans="1:21">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
         <v>207</v>
       </c>
@@ -15432,7 +15433,7 @@
         <v>334641</v>
       </c>
     </row>
-    <row r="212" spans="1:21">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
         <v>208</v>
       </c>
@@ -15465,7 +15466,7 @@
         <v>335387</v>
       </c>
     </row>
-    <row r="213" spans="1:21">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
         <v>209</v>
       </c>
@@ -15498,7 +15499,7 @@
         <v>335606</v>
       </c>
     </row>
-    <row r="214" spans="1:21">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>210</v>
       </c>
@@ -15531,7 +15532,7 @@
         <v>336047</v>
       </c>
     </row>
-    <row r="215" spans="1:21">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>211</v>
       </c>
@@ -15564,7 +15565,7 @@
         <v>336050</v>
       </c>
     </row>
-    <row r="216" spans="1:21">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
         <v>212</v>
       </c>
@@ -15597,7 +15598,7 @@
         <v>336053</v>
       </c>
     </row>
-    <row r="217" spans="1:21">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
         <v>213</v>
       </c>
@@ -15630,7 +15631,7 @@
         <v>336081</v>
       </c>
     </row>
-    <row r="218" spans="1:21">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
         <v>214</v>
       </c>
@@ -15663,7 +15664,7 @@
         <v>336082</v>
       </c>
     </row>
-    <row r="219" spans="1:21">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
         <v>215</v>
       </c>
@@ -15696,7 +15697,7 @@
         <v>336113</v>
       </c>
     </row>
-    <row r="220" spans="1:21">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>216</v>
       </c>
@@ -15729,7 +15730,7 @@
         <v>336344</v>
       </c>
     </row>
-    <row r="221" spans="1:21">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
         <v>217</v>
       </c>
@@ -15762,7 +15763,7 @@
         <v>336345</v>
       </c>
     </row>
-    <row r="222" spans="1:21">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
         <v>218</v>
       </c>
@@ -15795,7 +15796,7 @@
         <v>336353</v>
       </c>
     </row>
-    <row r="223" spans="1:21">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
         <v>219</v>
       </c>
@@ -15828,7 +15829,7 @@
         <v>336369</v>
       </c>
     </row>
-    <row r="224" spans="1:21">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
         <v>220</v>
       </c>
@@ -15861,7 +15862,7 @@
         <v>336370</v>
       </c>
     </row>
-    <row r="225" spans="1:21">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
         <v>221</v>
       </c>
@@ -15894,7 +15895,7 @@
         <v>336380</v>
       </c>
     </row>
-    <row r="226" spans="1:21">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
         <v>222</v>
       </c>
@@ -15927,7 +15928,7 @@
         <v>336400</v>
       </c>
     </row>
-    <row r="227" spans="1:21">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
         <v>223</v>
       </c>
@@ -15960,7 +15961,7 @@
         <v>336403</v>
       </c>
     </row>
-    <row r="228" spans="1:21">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
         <v>224</v>
       </c>
@@ -15993,7 +15994,7 @@
         <v>336405</v>
       </c>
     </row>
-    <row r="229" spans="1:21">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
         <v>225</v>
       </c>
@@ -16026,7 +16027,7 @@
         <v>336480</v>
       </c>
     </row>
-    <row r="230" spans="1:21">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
         <v>226</v>
       </c>
@@ -16058,7 +16059,7 @@
         <v>340132</v>
       </c>
     </row>
-    <row r="231" spans="1:21">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
         <v>227</v>
       </c>
@@ -16090,7 +16091,7 @@
         <v>340493</v>
       </c>
     </row>
-    <row r="232" spans="1:21">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
         <v>228</v>
       </c>
@@ -16122,7 +16123,7 @@
         <v>340494</v>
       </c>
     </row>
-    <row r="233" spans="1:21">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
         <v>229</v>
       </c>
@@ -16151,7 +16152,7 @@
         <v>841494</v>
       </c>
     </row>
-    <row r="234" spans="1:21">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
         <v>230</v>
       </c>
@@ -16180,7 +16181,7 @@
         <v>841495</v>
       </c>
     </row>
-    <row r="235" spans="1:21">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
         <v>231</v>
       </c>
@@ -16209,7 +16210,7 @@
         <v>842111</v>
       </c>
     </row>
-    <row r="236" spans="1:21">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
         <v>232</v>
       </c>
@@ -16238,7 +16239,7 @@
         <v>890549</v>
       </c>
     </row>
-    <row r="237" spans="1:21">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
         <v>233</v>
       </c>
@@ -16267,7 +16268,7 @@
         <v>891011</v>
       </c>
     </row>
-    <row r="238" spans="1:21">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
         <v>234</v>
       </c>
@@ -16296,7 +16297,7 @@
         <v>964626</v>
       </c>
     </row>
-    <row r="239" spans="1:21">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
         <v>235</v>
       </c>
@@ -16325,7 +16326,7 @@
         <v>964642</v>
       </c>
     </row>
-    <row r="240" spans="1:21">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
         <v>236</v>
       </c>
@@ -16354,7 +16355,7 @@
         <v>976897</v>
       </c>
     </row>
-    <row r="241" spans="1:21">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
         <v>237</v>
       </c>
@@ -16383,7 +16384,7 @@
         <v>1065149</v>
       </c>
     </row>
-    <row r="242" spans="1:21">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
         <v>238</v>
       </c>
@@ -16412,7 +16413,7 @@
         <v>1164571</v>
       </c>
     </row>
-    <row r="243" spans="1:21">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
         <v>239</v>
       </c>
@@ -16441,7 +16442,7 @@
         <v>1277730</v>
       </c>
     </row>
-    <row r="244" spans="1:21">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>240</v>
       </c>
@@ -16470,7 +16471,7 @@
         <v>1277731</v>
       </c>
     </row>
-    <row r="245" spans="1:21">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
         <v>241</v>
       </c>
@@ -16499,7 +16500,7 @@
         <v>1339399</v>
       </c>
     </row>
-    <row r="246" spans="1:21">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
         <v>242</v>
       </c>
@@ -16528,7 +16529,7 @@
         <v>1340256</v>
       </c>
     </row>
-    <row r="247" spans="1:21">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
         <v>243</v>
       </c>
@@ -16557,7 +16558,7 @@
         <v>1340500</v>
       </c>
     </row>
-    <row r="248" spans="1:21">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
         <v>244</v>
       </c>
@@ -16586,7 +16587,7 @@
         <v>1341295</v>
       </c>
     </row>
-    <row r="249" spans="1:21">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
         <v>245</v>
       </c>
@@ -16615,7 +16616,7 @@
         <v>1357114</v>
       </c>
     </row>
-    <row r="250" spans="1:21">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
         <v>246</v>
       </c>
@@ -16644,7 +16645,7 @@
         <v>1472767</v>
       </c>
     </row>
-    <row r="251" spans="1:21">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
         <v>247</v>
       </c>
@@ -16673,7 +16674,7 @@
         <v>1472781</v>
       </c>
     </row>
-    <row r="252" spans="1:21">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
         <v>248</v>
       </c>
@@ -16702,7 +16703,7 @@
         <v>1472793</v>
       </c>
     </row>
-    <row r="253" spans="1:21">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
         <v>249</v>
       </c>
@@ -16731,7 +16732,7 @@
         <v>1472803</v>
       </c>
     </row>
-    <row r="254" spans="1:21">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
         <v>250</v>
       </c>
@@ -16760,7 +16761,7 @@
         <v>1476382</v>
       </c>
     </row>
-    <row r="255" spans="1:21">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
         <v>251</v>
       </c>
@@ -16789,7 +16790,7 @@
         <v>1476383</v>
       </c>
     </row>
-    <row r="256" spans="1:21">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
         <v>252</v>
       </c>
@@ -16818,7 +16819,7 @@
         <v>1476408</v>
       </c>
     </row>
-    <row r="257" spans="1:21">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
         <v>253</v>
       </c>
@@ -16847,7 +16848,7 @@
         <v>1476481</v>
       </c>
     </row>
-    <row r="258" spans="1:21">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
         <v>254</v>
       </c>
@@ -16876,7 +16877,7 @@
         <v>1480945</v>
       </c>
     </row>
-    <row r="259" spans="1:21">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
         <v>255</v>
       </c>
@@ -16905,7 +16906,7 @@
         <v>1480948</v>
       </c>
     </row>
-    <row r="260" spans="1:21">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
         <v>256</v>
       </c>
@@ -16934,7 +16935,7 @@
         <v>1480972</v>
       </c>
     </row>
-    <row r="261" spans="1:21">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
         <v>257</v>
       </c>
@@ -16963,7 +16964,7 @@
         <v>1481185</v>
       </c>
     </row>
-    <row r="262" spans="1:21">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
         <v>258</v>
       </c>
@@ -16992,7 +16993,7 @@
         <v>1532635</v>
       </c>
     </row>
-    <row r="263" spans="1:21">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
         <v>259</v>
       </c>
@@ -17021,7 +17022,7 @@
         <v>1532656</v>
       </c>
     </row>
-    <row r="264" spans="1:21">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
         <v>260</v>
       </c>
@@ -17050,7 +17051,7 @@
         <v>1532659</v>
       </c>
     </row>
-    <row r="265" spans="1:21">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
         <v>261</v>
       </c>
@@ -17079,7 +17080,7 @@
         <v>1532660</v>
       </c>
     </row>
-    <row r="266" spans="1:21">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
         <v>262</v>
       </c>
@@ -17108,7 +17109,7 @@
         <v>1532846</v>
       </c>
     </row>
-    <row r="267" spans="1:21">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
         <v>263</v>
       </c>
@@ -17137,7 +17138,7 @@
         <v>1532847</v>
       </c>
     </row>
-    <row r="268" spans="1:21">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
         <v>264</v>
       </c>
@@ -17166,7 +17167,7 @@
         <v>1532855</v>
       </c>
     </row>
-    <row r="269" spans="1:21">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
         <v>265</v>
       </c>
@@ -17195,7 +17196,7 @@
         <v>1532859</v>
       </c>
     </row>
-    <row r="270" spans="1:21">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
         <v>266</v>
       </c>
@@ -17224,7 +17225,7 @@
         <v>1533077</v>
       </c>
     </row>
-    <row r="271" spans="1:21">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
         <v>267</v>
       </c>
@@ -17253,7 +17254,7 @@
         <v>1533176</v>
       </c>
     </row>
-    <row r="272" spans="1:21">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A272" s="5" t="s">
         <v>268</v>
       </c>
@@ -17282,7 +17283,7 @@
         <v>1533184</v>
       </c>
     </row>
-    <row r="273" spans="1:21">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
         <v>269</v>
       </c>
@@ -17311,7 +17312,7 @@
         <v>1533185</v>
       </c>
     </row>
-    <row r="274" spans="1:21">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A274" s="5" t="s">
         <v>270</v>
       </c>
@@ -17340,7 +17341,7 @@
         <v>1533187</v>
       </c>
     </row>
-    <row r="275" spans="1:21">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A275" s="5" t="s">
         <v>271</v>
       </c>
@@ -17369,7 +17370,7 @@
         <v>1533268</v>
       </c>
     </row>
-    <row r="276" spans="1:21">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A276" s="5" t="s">
         <v>272</v>
       </c>
@@ -17398,7 +17399,7 @@
         <v>1533269</v>
       </c>
     </row>
-    <row r="277" spans="1:21">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
         <v>273</v>
       </c>
@@ -17427,7 +17428,7 @@
         <v>1533274</v>
       </c>
     </row>
-    <row r="278" spans="1:21">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A278" s="5" t="s">
         <v>274</v>
       </c>
@@ -17456,7 +17457,7 @@
         <v>1533275</v>
       </c>
     </row>
-    <row r="279" spans="1:21">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A279" s="5" t="s">
         <v>275</v>
       </c>
@@ -17485,7 +17486,7 @@
         <v>1533286</v>
       </c>
     </row>
-    <row r="280" spans="1:21">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
         <v>276</v>
       </c>
@@ -17514,7 +17515,7 @@
         <v>1533288</v>
       </c>
     </row>
-    <row r="281" spans="1:21">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
         <v>277</v>
       </c>
@@ -17543,7 +17544,7 @@
         <v>1533466</v>
       </c>
     </row>
-    <row r="282" spans="1:21">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A282" s="5" t="s">
         <v>278</v>
       </c>
@@ -17572,7 +17573,7 @@
         <v>1533470</v>
       </c>
     </row>
-    <row r="283" spans="1:21">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A283" s="5" t="s">
         <v>279</v>
       </c>
@@ -17601,7 +17602,7 @@
         <v>1533471</v>
       </c>
     </row>
-    <row r="284" spans="1:21">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A284" s="5" t="s">
         <v>280</v>
       </c>
@@ -17630,7 +17631,7 @@
         <v>1533625</v>
       </c>
     </row>
-    <row r="285" spans="1:21">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A285" s="5" t="s">
         <v>281</v>
       </c>
@@ -17659,7 +17660,7 @@
         <v>1779243</v>
       </c>
     </row>
-    <row r="286" spans="1:21">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A286" s="5" t="s">
         <v>282</v>
       </c>
@@ -17688,7 +17689,7 @@
         <v>1779854</v>
       </c>
     </row>
-    <row r="287" spans="1:21">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
         <v>283</v>
       </c>
@@ -17717,7 +17718,7 @@
         <v>1779920</v>
       </c>
     </row>
-    <row r="288" spans="1:21">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
         <v>284</v>
       </c>
@@ -17746,7 +17747,7 @@
         <v>1780102</v>
       </c>
     </row>
-    <row r="289" spans="1:21">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
         <v>285</v>
       </c>
@@ -17775,7 +17776,7 @@
         <v>1780305</v>
       </c>
     </row>
-    <row r="290" spans="1:21">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A290" s="5" t="s">
         <v>286</v>
       </c>
@@ -17804,7 +17805,7 @@
         <v>1780329</v>
       </c>
     </row>
-    <row r="291" spans="1:21">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
         <v>287</v>
       </c>
@@ -17833,7 +17834,7 @@
         <v>1808795</v>
       </c>
     </row>
-    <row r="292" spans="1:21">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
         <v>288</v>
       </c>
@@ -17862,7 +17863,7 @@
         <v>1990370</v>
       </c>
     </row>
-    <row r="293" spans="1:21">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A293" s="5" t="s">
         <v>289</v>
       </c>
@@ -17891,7 +17892,7 @@
         <v>1990924</v>
       </c>
     </row>
-    <row r="294" spans="1:21">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A294" s="5" t="s">
         <v>290</v>
       </c>
@@ -17920,7 +17921,7 @@
         <v>1990928</v>
       </c>
     </row>
-    <row r="295" spans="1:21">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
         <v>291</v>
       </c>
@@ -17949,7 +17950,7 @@
         <v>2025913</v>
       </c>
     </row>
-    <row r="296" spans="1:21">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A296" s="5" t="s">
         <v>292</v>
       </c>
@@ -17978,7 +17979,7 @@
         <v>2026008</v>
       </c>
     </row>
-    <row r="297" spans="1:21">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A297" s="5" t="s">
         <v>293</v>
       </c>
@@ -18007,7 +18008,7 @@
         <v>2026025</v>
       </c>
     </row>
-    <row r="298" spans="1:21">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
         <v>294</v>
       </c>
@@ -18036,7 +18037,7 @@
         <v>2026033</v>
       </c>
     </row>
-    <row r="299" spans="1:21">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A299" s="5" t="s">
         <v>295</v>
       </c>
@@ -18065,7 +18066,7 @@
         <v>2026110</v>
       </c>
     </row>
-    <row r="300" spans="1:21">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A300" s="5" t="s">
         <v>296</v>
       </c>
@@ -18094,7 +18095,7 @@
         <v>2029104</v>
       </c>
     </row>
-    <row r="301" spans="1:21">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
         <v>297</v>
       </c>
@@ -18123,7 +18124,7 @@
         <v>2029112</v>
       </c>
     </row>
-    <row r="302" spans="1:21">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A302" s="5" t="s">
         <v>298</v>
       </c>
@@ -18152,7 +18153,7 @@
         <v>2074458</v>
       </c>
     </row>
-    <row r="303" spans="1:21">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A303" s="5" t="s">
         <v>299</v>
       </c>
@@ -18181,7 +18182,7 @@
         <v>2074565</v>
       </c>
     </row>
-    <row r="304" spans="1:21">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A304" s="5" t="s">
         <v>300</v>
       </c>
@@ -18210,7 +18211,7 @@
         <v>2122395</v>
       </c>
     </row>
-    <row r="305" spans="1:21">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A305" s="5" t="s">
         <v>301</v>
       </c>
@@ -18239,7 +18240,7 @@
         <v>2123169</v>
       </c>
     </row>
-    <row r="306" spans="1:21">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A306" s="5" t="s">
         <v>302</v>
       </c>
@@ -18268,7 +18269,7 @@
         <v>2155168</v>
       </c>
     </row>
-    <row r="307" spans="1:21">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A307" s="5" t="s">
         <v>303</v>
       </c>
@@ -18297,7 +18298,7 @@
         <v>2294894</v>
       </c>
     </row>
-    <row r="308" spans="1:21">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A308" s="5" t="s">
         <v>304</v>
       </c>
@@ -18326,7 +18327,7 @@
         <v>2294896</v>
       </c>
     </row>
-    <row r="309" spans="1:21">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
         <v>305</v>
       </c>
@@ -18355,7 +18356,7 @@
         <v>2294903</v>
       </c>
     </row>
-    <row r="310" spans="1:21">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A310" s="5" t="s">
         <v>306</v>
       </c>
@@ -18384,7 +18385,7 @@
         <v>2300546</v>
       </c>
     </row>
-    <row r="311" spans="1:21">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A311" s="5" t="s">
         <v>307</v>
       </c>
@@ -18413,7 +18414,7 @@
         <v>2300552</v>
       </c>
     </row>
-    <row r="312" spans="1:21">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A312" s="5" t="s">
         <v>308</v>
       </c>
@@ -18442,7 +18443,7 @@
         <v>2300555</v>
       </c>
     </row>
-    <row r="313" spans="1:21">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A313" s="5" t="s">
         <v>309</v>
       </c>
@@ -18471,7 +18472,7 @@
         <v>2301782</v>
       </c>
     </row>
-    <row r="314" spans="1:21">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A314" s="5" t="s">
         <v>310</v>
       </c>
@@ -18500,7 +18501,7 @@
         <v>2302033</v>
       </c>
     </row>
-    <row r="315" spans="1:21">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A315" s="5" t="s">
         <v>311</v>
       </c>
@@ -18529,7 +18530,7 @@
         <v>2306306</v>
       </c>
     </row>
-    <row r="316" spans="1:21">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A316" s="5" t="s">
         <v>312</v>
       </c>
@@ -18558,7 +18559,7 @@
         <v>2306612</v>
       </c>
     </row>
-    <row r="317" spans="1:21">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A317" s="5" t="s">
         <v>313</v>
       </c>
@@ -18587,7 +18588,7 @@
         <v>2339605</v>
       </c>
     </row>
-    <row r="318" spans="1:21">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A318" s="5" t="s">
         <v>314</v>
       </c>
@@ -18616,7 +18617,7 @@
         <v>2372550</v>
       </c>
     </row>
-    <row r="319" spans="1:21">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
         <v>315</v>
       </c>
@@ -18645,7 +18646,7 @@
         <v>2439401</v>
       </c>
     </row>
-    <row r="320" spans="1:21">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
         <v>316</v>
       </c>
@@ -18674,7 +18675,7 @@
         <v>2439458</v>
       </c>
     </row>
-    <row r="321" spans="1:21">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
         <v>317</v>
       </c>
@@ -18703,7 +18704,7 @@
         <v>2439460</v>
       </c>
     </row>
-    <row r="322" spans="1:21">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A322" s="5" t="s">
         <v>318</v>
       </c>
@@ -18732,7 +18733,7 @@
         <v>2626004</v>
       </c>
     </row>
-    <row r="323" spans="1:21">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A323" s="5" t="s">
         <v>319</v>
       </c>
@@ -18761,7 +18762,7 @@
         <v>2626149</v>
       </c>
     </row>
-    <row r="324" spans="1:21">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A324" s="5" t="s">
         <v>320</v>
       </c>
@@ -18790,7 +18791,7 @@
         <v>2631556</v>
       </c>
     </row>
-    <row r="325" spans="1:21">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A325" s="5" t="s">
         <v>321</v>
       </c>
@@ -18819,7 +18820,7 @@
         <v>2631827</v>
       </c>
     </row>
-    <row r="326" spans="1:21">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
         <v>322</v>
       </c>
@@ -18848,7 +18849,7 @@
         <v>2631899</v>
       </c>
     </row>
-    <row r="327" spans="1:21">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A327" s="5" t="s">
         <v>323</v>
       </c>
@@ -18877,7 +18878,7 @@
         <v>2631962</v>
       </c>
     </row>
-    <row r="328" spans="1:21">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A328" s="5" t="s">
         <v>324</v>
       </c>
@@ -18906,7 +18907,7 @@
         <v>2631967</v>
       </c>
     </row>
-    <row r="329" spans="1:21">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A329" s="5" t="s">
         <v>325</v>
       </c>
@@ -18935,7 +18936,7 @@
         <v>2631968</v>
       </c>
     </row>
-    <row r="330" spans="1:21">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
         <v>326</v>
       </c>
@@ -18964,7 +18965,7 @@
         <v>2631971</v>
       </c>
     </row>
-    <row r="331" spans="1:21">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
         <v>327</v>
       </c>
@@ -18993,7 +18994,7 @@
         <v>2631977</v>
       </c>
     </row>
-    <row r="332" spans="1:21">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A332" s="7" t="s">
         <v>328</v>
       </c>
@@ -19022,7 +19023,7 @@
         <v>2638890</v>
       </c>
     </row>
-    <row r="333" spans="1:21">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
         <v>329</v>
       </c>
@@ -19051,7 +19052,7 @@
         <v>2638900</v>
       </c>
     </row>
-    <row r="334" spans="1:21">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
         <v>330</v>
       </c>
@@ -19080,7 +19081,7 @@
         <v>2638997</v>
       </c>
     </row>
-    <row r="335" spans="1:21">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
         <v>331</v>
       </c>
@@ -19109,7 +19110,7 @@
         <v>2721013</v>
       </c>
     </row>
-    <row r="336" spans="1:21">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A336" s="5" t="s">
         <v>332</v>
       </c>
@@ -19138,7 +19139,7 @@
         <v>2784613</v>
       </c>
     </row>
-    <row r="337" spans="1:21">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A337" s="5" t="s">
         <v>333</v>
       </c>
@@ -19167,7 +19168,7 @@
         <v>2945004</v>
       </c>
     </row>
-    <row r="338" spans="1:21">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A338" s="5" t="s">
         <v>334</v>
       </c>
@@ -19196,7 +19197,7 @@
         <v>2975502</v>
       </c>
     </row>
-    <row r="339" spans="1:21">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A339" s="5" t="s">
         <v>335</v>
       </c>
@@ -19225,7 +19226,7 @@
         <v>2975880</v>
       </c>
     </row>
-    <row r="340" spans="1:21">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A340" s="5" t="s">
         <v>336</v>
       </c>
@@ -19254,7 +19255,7 @@
         <v>3135912</v>
       </c>
     </row>
-    <row r="341" spans="1:21">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A341" s="5" t="s">
         <v>337</v>
       </c>
@@ -19283,7 +19284,7 @@
         <v>3136335</v>
       </c>
     </row>
-    <row r="342" spans="1:21">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A342" s="5" t="s">
         <v>338</v>
       </c>
@@ -19312,7 +19313,7 @@
         <v>3232703</v>
       </c>
     </row>
-    <row r="343" spans="1:21">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A343" s="5" t="s">
         <v>339</v>
       </c>
@@ -19341,7 +19342,7 @@
         <v>3253100</v>
       </c>
     </row>
-    <row r="344" spans="1:21">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A344" s="5" t="s">
         <v>340</v>
       </c>
@@ -19370,7 +19371,7 @@
         <v>3333868</v>
       </c>
     </row>
-    <row r="345" spans="1:21">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A345" s="5" t="s">
         <v>341</v>
       </c>
@@ -19399,7 +19400,7 @@
         <v>3336587</v>
       </c>
     </row>
-    <row r="346" spans="1:21">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A346" s="5" t="s">
         <v>342</v>
       </c>
@@ -19428,7 +19429,7 @@
         <v>3336646</v>
       </c>
     </row>
-    <row r="347" spans="1:21">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A347" s="5" t="s">
         <v>343</v>
       </c>
@@ -19457,7 +19458,7 @@
         <v>3377271</v>
       </c>
     </row>
-    <row r="348" spans="1:21">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A348" s="5" t="s">
         <v>344</v>
       </c>
@@ -19489,7 +19490,7 @@
         <v>3377275</v>
       </c>
     </row>
-    <row r="349" spans="1:21">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A349" s="5" t="s">
         <v>345</v>
       </c>
@@ -19521,7 +19522,7 @@
         <v>3377281</v>
       </c>
     </row>
-    <row r="350" spans="1:21">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A350" s="5" t="s">
         <v>346</v>
       </c>
@@ -19553,7 +19554,7 @@
         <v>3377294</v>
       </c>
     </row>
-    <row r="351" spans="1:21">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A351" s="5" t="s">
         <v>347</v>
       </c>
@@ -19585,7 +19586,7 @@
         <v>3377305</v>
       </c>
     </row>
-    <row r="352" spans="1:21">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A352" s="5" t="s">
         <v>348</v>
       </c>
@@ -19617,7 +19618,7 @@
         <v>3377314</v>
       </c>
     </row>
-    <row r="353" spans="1:21">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A353" s="5" t="s">
         <v>349</v>
       </c>
@@ -19649,7 +19650,7 @@
         <v>3377320</v>
       </c>
     </row>
-    <row r="354" spans="1:21">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A354" s="5" t="s">
         <v>350</v>
       </c>
@@ -19681,7 +19682,7 @@
         <v>3377326</v>
       </c>
     </row>
-    <row r="355" spans="1:21">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A355" s="5" t="s">
         <v>351</v>
       </c>
@@ -19713,7 +19714,7 @@
         <v>3377347</v>
       </c>
     </row>
-    <row r="356" spans="1:21">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A356" s="5" t="s">
         <v>352</v>
       </c>
@@ -19745,7 +19746,7 @@
         <v>3379757</v>
       </c>
     </row>
-    <row r="357" spans="1:21">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A357" s="5" t="s">
         <v>353</v>
       </c>
@@ -19777,7 +19778,7 @@
         <v>3379763</v>
       </c>
     </row>
-    <row r="358" spans="1:21">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A358" s="5" t="s">
         <v>354</v>
       </c>
@@ -19809,7 +19810,7 @@
         <v>3379784</v>
       </c>
     </row>
-    <row r="359" spans="1:21">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A359" s="5" t="s">
         <v>355</v>
       </c>
@@ -19841,7 +19842,7 @@
         <v>3379788</v>
       </c>
     </row>
-    <row r="360" spans="1:21">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A360" s="5" t="s">
         <v>356</v>
       </c>
@@ -19873,7 +19874,7 @@
         <v>3382137</v>
       </c>
     </row>
-    <row r="361" spans="1:21">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A361" s="5" t="s">
         <v>357</v>
       </c>
@@ -19905,7 +19906,7 @@
         <v>3382598</v>
       </c>
     </row>
-    <row r="362" spans="1:21">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A362" s="5" t="s">
         <v>358</v>
       </c>
@@ -19937,7 +19938,7 @@
         <v>3481475</v>
       </c>
     </row>
-    <row r="363" spans="1:21">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A363" s="5" t="s">
         <v>359</v>
       </c>
@@ -19969,7 +19970,7 @@
         <v>3481993</v>
       </c>
     </row>
-    <row r="364" spans="1:21">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A364" s="5" t="s">
         <v>360</v>
       </c>
@@ -20001,7 +20002,7 @@
         <v>3484012</v>
       </c>
     </row>
-    <row r="365" spans="1:21">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A365" s="5" t="s">
         <v>361</v>
       </c>
@@ -20033,7 +20034,7 @@
         <v>3594344</v>
       </c>
     </row>
-    <row r="366" spans="1:21">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A366" s="5" t="s">
         <v>362</v>
       </c>
@@ -20065,7 +20066,7 @@
         <v>3711910</v>
       </c>
     </row>
-    <row r="367" spans="1:21">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A367" s="5" t="s">
         <v>363</v>
       </c>
@@ -20097,7 +20098,7 @@
         <v>3712372</v>
       </c>
     </row>
-    <row r="368" spans="1:21">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A368" s="5" t="s">
         <v>364</v>
       </c>
@@ -20129,7 +20130,7 @@
         <v>3730530</v>
       </c>
     </row>
-    <row r="369" spans="1:21">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A369" s="5" t="s">
         <v>365</v>
       </c>
@@ -20161,7 +20162,7 @@
         <v>3730789</v>
       </c>
     </row>
-    <row r="370" spans="1:21">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A370" s="5" t="s">
         <v>366</v>
       </c>
@@ -20193,7 +20194,7 @@
         <v>3730797</v>
       </c>
     </row>
-    <row r="371" spans="1:21">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A371" s="5" t="s">
         <v>367</v>
       </c>
@@ -20225,7 +20226,7 @@
         <v>3730825</v>
       </c>
     </row>
-    <row r="372" spans="1:21">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A372" s="5" t="s">
         <v>368</v>
       </c>
@@ -20257,7 +20258,7 @@
         <v>3730896</v>
       </c>
     </row>
-    <row r="373" spans="1:21">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A373" s="5" t="s">
         <v>369</v>
       </c>
@@ -20289,7 +20290,7 @@
         <v>3730993</v>
       </c>
     </row>
-    <row r="374" spans="1:21">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A374" s="5" t="s">
         <v>370</v>
       </c>
@@ -20321,7 +20322,7 @@
         <v>3731461</v>
       </c>
     </row>
-    <row r="375" spans="1:21">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A375" s="5" t="s">
         <v>371</v>
       </c>
@@ -20353,7 +20354,7 @@
         <v>3732113</v>
       </c>
     </row>
-    <row r="376" spans="1:21">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A376" s="5" t="s">
         <v>372</v>
       </c>
@@ -20385,7 +20386,7 @@
         <v>3732114</v>
       </c>
     </row>
-    <row r="377" spans="1:21">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A377" s="5" t="s">
         <v>373</v>
       </c>
@@ -20417,7 +20418,7 @@
         <v>3732118</v>
       </c>
     </row>
-    <row r="378" spans="1:21">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A378" s="5" t="s">
         <v>374</v>
       </c>
@@ -20449,7 +20450,7 @@
         <v>3732122</v>
       </c>
     </row>
-    <row r="379" spans="1:21">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A379" s="5" t="s">
         <v>375</v>
       </c>
@@ -20481,7 +20482,7 @@
         <v>3732370</v>
       </c>
     </row>
-    <row r="380" spans="1:21">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A380" s="5" t="s">
         <v>376</v>
       </c>
@@ -20513,7 +20514,7 @@
         <v>3732517</v>
       </c>
     </row>
-    <row r="381" spans="1:21">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A381" s="5" t="s">
         <v>377</v>
       </c>
@@ -20545,7 +20546,7 @@
         <v>3732525</v>
       </c>
     </row>
-    <row r="382" spans="1:21">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A382" s="5" t="s">
         <v>378</v>
       </c>
@@ -20577,7 +20578,7 @@
         <v>3732553</v>
       </c>
     </row>
-    <row r="383" spans="1:21">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A383" s="5" t="s">
         <v>379</v>
       </c>
@@ -20609,7 +20610,7 @@
         <v>3732624</v>
       </c>
     </row>
-    <row r="384" spans="1:21">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A384" s="5" t="s">
         <v>380</v>
       </c>
@@ -20641,7 +20642,7 @@
         <v>3735865</v>
       </c>
     </row>
-    <row r="385" spans="1:21">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A385" s="5" t="s">
         <v>381</v>
       </c>
@@ -20673,7 +20674,7 @@
         <v>3735925</v>
       </c>
     </row>
-    <row r="386" spans="1:21">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A386" s="5" t="s">
         <v>382</v>
       </c>
@@ -20705,7 +20706,7 @@
         <v>3735931</v>
       </c>
     </row>
-    <row r="387" spans="1:21">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A387" s="5" t="s">
         <v>383</v>
       </c>
@@ -20737,7 +20738,7 @@
         <v>3735967</v>
       </c>
     </row>
-    <row r="388" spans="1:21">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A388" s="5" t="s">
         <v>384</v>
       </c>
@@ -20769,7 +20770,7 @@
         <v>3736024</v>
       </c>
     </row>
-    <row r="389" spans="1:21">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A389" s="5" t="s">
         <v>385</v>
       </c>
@@ -20801,7 +20802,7 @@
         <v>3736072</v>
       </c>
     </row>
-    <row r="390" spans="1:21">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A390" s="5" t="s">
         <v>386</v>
       </c>
@@ -20833,7 +20834,7 @@
         <v>3736080</v>
       </c>
     </row>
-    <row r="391" spans="1:21">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A391" s="5" t="s">
         <v>387</v>
       </c>
@@ -20865,7 +20866,7 @@
         <v>3736108</v>
       </c>
     </row>
-    <row r="392" spans="1:21">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A392" s="5" t="s">
         <v>388</v>
       </c>
@@ -20897,7 +20898,7 @@
         <v>3744931</v>
       </c>
     </row>
-    <row r="393" spans="1:21">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A393" s="5" t="s">
         <v>389</v>
       </c>
@@ -20929,7 +20930,7 @@
         <v>3744937</v>
       </c>
     </row>
-    <row r="394" spans="1:21">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A394" s="5" t="s">
         <v>390</v>
       </c>
@@ -20961,7 +20962,7 @@
         <v>3744953</v>
       </c>
     </row>
-    <row r="395" spans="1:21">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A395" s="5" t="s">
         <v>391</v>
       </c>
@@ -20993,7 +20994,7 @@
         <v>3744954</v>
       </c>
     </row>
-    <row r="396" spans="1:21">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A396" s="5" t="s">
         <v>392</v>
       </c>
@@ -21025,7 +21026,7 @@
         <v>3744955</v>
       </c>
     </row>
-    <row r="397" spans="1:21">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A397" s="5" t="s">
         <v>393</v>
       </c>
@@ -21057,7 +21058,7 @@
         <v>3746770</v>
       </c>
     </row>
-    <row r="398" spans="1:21">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A398" s="5" t="s">
         <v>394</v>
       </c>
@@ -21089,7 +21090,7 @@
         <v>3746774</v>
       </c>
     </row>
-    <row r="399" spans="1:21">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A399" s="5" t="s">
         <v>395</v>
       </c>
@@ -21121,7 +21122,7 @@
         <v>3746845</v>
       </c>
     </row>
-    <row r="400" spans="1:21">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A400" s="5" t="s">
         <v>396</v>
       </c>
@@ -21153,7 +21154,7 @@
         <v>3746854</v>
       </c>
     </row>
-    <row r="401" spans="1:21">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A401" s="5" t="s">
         <v>397</v>
       </c>
@@ -21185,7 +21186,7 @@
         <v>3748762</v>
       </c>
     </row>
-    <row r="402" spans="1:21">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A402" s="5" t="s">
         <v>398</v>
       </c>
@@ -21217,7 +21218,7 @@
         <v>3748763</v>
       </c>
     </row>
-    <row r="403" spans="1:21">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A403" s="5" t="s">
         <v>399</v>
       </c>
@@ -21249,7 +21250,7 @@
         <v>3748773</v>
       </c>
     </row>
-    <row r="404" spans="1:21">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A404" s="5" t="s">
         <v>400</v>
       </c>
@@ -21281,7 +21282,7 @@
         <v>3748775</v>
       </c>
     </row>
-    <row r="405" spans="1:21">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A405" s="5" t="s">
         <v>401</v>
       </c>
@@ -21313,7 +21314,7 @@
         <v>3748777</v>
       </c>
     </row>
-    <row r="406" spans="1:21">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A406" s="8" t="s">
         <v>402</v>
       </c>
@@ -21345,7 +21346,7 @@
         <v>3748781</v>
       </c>
     </row>
-    <row r="407" spans="1:21">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A407" s="5" t="s">
         <v>403</v>
       </c>
@@ -21377,7 +21378,7 @@
         <v>3748788</v>
       </c>
     </row>
-    <row r="408" spans="1:21">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A408" s="5" t="s">
         <v>404</v>
       </c>
@@ -21409,7 +21410,7 @@
         <v>3748796</v>
       </c>
     </row>
-    <row r="409" spans="1:21">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A409" s="5" t="s">
         <v>405</v>
       </c>
@@ -21441,7 +21442,7 @@
         <v>3748799</v>
       </c>
     </row>
-    <row r="410" spans="1:21">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A410" s="5" t="s">
         <v>406</v>
       </c>
@@ -21473,7 +21474,7 @@
         <v>3750177</v>
       </c>
     </row>
-    <row r="411" spans="1:21">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A411" s="5" t="s">
         <v>407</v>
       </c>
@@ -21505,7 +21506,7 @@
         <v>3750178</v>
       </c>
     </row>
-    <row r="412" spans="1:21">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A412" s="5" t="s">
         <v>408</v>
       </c>
@@ -21537,7 +21538,7 @@
         <v>3750185</v>
       </c>
     </row>
-    <row r="413" spans="1:21">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A413" s="5" t="s">
         <v>409</v>
       </c>
@@ -21569,7 +21570,7 @@
         <v>3750187</v>
       </c>
     </row>
-    <row r="414" spans="1:21">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A414" s="5" t="s">
         <v>410</v>
       </c>
@@ -21601,7 +21602,7 @@
         <v>3750188</v>
       </c>
     </row>
-    <row r="415" spans="1:21">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A415" s="5" t="s">
         <v>411</v>
       </c>
@@ -21633,7 +21634,7 @@
         <v>3750193</v>
       </c>
     </row>
-    <row r="416" spans="1:21">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A416" s="5" t="s">
         <v>412</v>
       </c>
@@ -21665,7 +21666,7 @@
         <v>3750305</v>
       </c>
     </row>
-    <row r="417" spans="1:21">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A417" s="5" t="s">
         <v>413</v>
       </c>
@@ -21697,7 +21698,7 @@
         <v>3750496</v>
       </c>
     </row>
-    <row r="418" spans="1:21">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A418" s="5" t="s">
         <v>414</v>
       </c>
@@ -21729,7 +21730,7 @@
         <v>3750497</v>
       </c>
     </row>
-    <row r="419" spans="1:21">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A419" s="5" t="s">
         <v>415</v>
       </c>
@@ -21761,7 +21762,7 @@
         <v>3750500</v>
       </c>
     </row>
-    <row r="420" spans="1:21">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A420" s="5" t="s">
         <v>416</v>
       </c>
@@ -21793,7 +21794,7 @@
         <v>3750587</v>
       </c>
     </row>
-    <row r="421" spans="1:21">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A421" s="5" t="s">
         <v>417</v>
       </c>
@@ -21825,7 +21826,7 @@
         <v>3750588</v>
       </c>
     </row>
-    <row r="422" spans="1:21">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A422" s="5" t="s">
         <v>418</v>
       </c>
@@ -21857,7 +21858,7 @@
         <v>3752207</v>
       </c>
     </row>
-    <row r="423" spans="1:21">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A423" s="5" t="s">
         <v>419</v>
       </c>
@@ -21889,7 +21890,7 @@
         <v>3752761</v>
       </c>
     </row>
-    <row r="424" spans="1:21">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A424" s="5" t="s">
         <v>420</v>
       </c>
@@ -21921,7 +21922,7 @@
         <v>3752909</v>
       </c>
     </row>
-    <row r="425" spans="1:21">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A425" s="5" t="s">
         <v>421</v>
       </c>
@@ -21953,7 +21954,7 @@
         <v>3752910</v>
       </c>
     </row>
-    <row r="426" spans="1:21">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A426" s="5" t="s">
         <v>422</v>
       </c>
@@ -21985,7 +21986,7 @@
         <v>3752934</v>
       </c>
     </row>
-    <row r="427" spans="1:21">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A427" s="5" t="s">
         <v>423</v>
       </c>
@@ -22017,7 +22018,7 @@
         <v>3752975</v>
       </c>
     </row>
-    <row r="428" spans="1:21">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A428" s="5" t="s">
         <v>424</v>
       </c>
@@ -22049,7 +22050,7 @@
         <v>3753164</v>
       </c>
     </row>
-    <row r="429" spans="1:21">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A429" s="5" t="s">
         <v>425</v>
       </c>
@@ -22081,7 +22082,7 @@
         <v>3757797</v>
       </c>
     </row>
-    <row r="430" spans="1:21">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A430" s="5" t="s">
         <v>426</v>
       </c>
@@ -22113,7 +22114,7 @@
         <v>3760436</v>
       </c>
     </row>
-    <row r="431" spans="1:21">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A431" s="5" t="s">
         <v>427</v>
       </c>
@@ -22145,7 +22146,7 @@
         <v>3766679</v>
       </c>
     </row>
-    <row r="432" spans="1:21">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A432" s="5" t="s">
         <v>428</v>
       </c>
@@ -22177,7 +22178,7 @@
         <v>3766696</v>
       </c>
     </row>
-    <row r="433" spans="1:21">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A433" s="5" t="s">
         <v>429</v>
       </c>
@@ -22209,7 +22210,7 @@
         <v>3766893</v>
       </c>
     </row>
-    <row r="434" spans="1:21">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A434" s="5" t="s">
         <v>430</v>
       </c>
@@ -22241,7 +22242,7 @@
         <v>3820446</v>
       </c>
     </row>
-    <row r="435" spans="1:21">
+    <row r="435" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A435" s="5" t="s">
         <v>431</v>
       </c>
@@ -22273,7 +22274,7 @@
         <v>3820449</v>
       </c>
     </row>
-    <row r="436" spans="1:21">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A436" s="5" t="s">
         <v>432</v>
       </c>
@@ -22305,7 +22306,7 @@
         <v>3820523</v>
       </c>
     </row>
-    <row r="437" spans="1:21">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A437" s="5" t="s">
         <v>433</v>
       </c>
@@ -22337,7 +22338,7 @@
         <v>3820545</v>
       </c>
     </row>
-    <row r="438" spans="1:21">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A438" s="5" t="s">
         <v>434</v>
       </c>
@@ -22366,7 +22367,7 @@
         <v>3841662</v>
       </c>
     </row>
-    <row r="439" spans="1:21">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A439" s="5" t="s">
         <v>435</v>
       </c>
@@ -22395,7 +22396,7 @@
         <v>3841739</v>
       </c>
     </row>
-    <row r="440" spans="1:21">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A440" s="5" t="s">
         <v>436</v>
       </c>
@@ -22424,7 +22425,7 @@
         <v>3841759</v>
       </c>
     </row>
-    <row r="441" spans="1:21">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A441" s="5" t="s">
         <v>437</v>
       </c>
@@ -22453,7 +22454,7 @@
         <v>3841777</v>
       </c>
     </row>
-    <row r="442" spans="1:21">
+    <row r="442" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A442" s="5" t="s">
         <v>438</v>
       </c>
@@ -22482,7 +22483,7 @@
         <v>3841808</v>
       </c>
     </row>
-    <row r="443" spans="1:21">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A443" s="5" t="s">
         <v>439</v>
       </c>
@@ -22511,7 +22512,7 @@
         <v>3841816</v>
       </c>
     </row>
-    <row r="444" spans="1:21">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A444" s="5" t="s">
         <v>440</v>
       </c>
@@ -22540,7 +22541,7 @@
         <v>3841971</v>
       </c>
     </row>
-    <row r="445" spans="1:21">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A445" s="5" t="s">
         <v>441</v>
       </c>
@@ -22569,7 +22570,7 @@
         <v>3842309</v>
       </c>
     </row>
-    <row r="446" spans="1:21">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A446" s="5" t="s">
         <v>442</v>
       </c>
@@ -22598,7 +22599,7 @@
         <v>3842311</v>
       </c>
     </row>
-    <row r="447" spans="1:21">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A447" s="5" t="s">
         <v>443</v>
       </c>
@@ -22627,7 +22628,7 @@
         <v>3842312</v>
       </c>
     </row>
-    <row r="448" spans="1:21">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A448" s="5" t="s">
         <v>444</v>
       </c>
@@ -22656,7 +22657,7 @@
         <v>3842317</v>
       </c>
     </row>
-    <row r="449" spans="1:21">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A449" s="5" t="s">
         <v>445</v>
       </c>
@@ -22685,7 +22686,7 @@
         <v>3842321</v>
       </c>
     </row>
-    <row r="450" spans="1:21">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A450" s="5" t="s">
         <v>446</v>
       </c>
@@ -22714,7 +22715,7 @@
         <v>3842384</v>
       </c>
     </row>
-    <row r="451" spans="1:21">
+    <row r="451" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A451" s="5" t="s">
         <v>447</v>
       </c>
@@ -22743,7 +22744,7 @@
         <v>3842392</v>
       </c>
     </row>
-    <row r="452" spans="1:21">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A452" s="5" t="s">
         <v>448</v>
       </c>
@@ -22772,7 +22773,7 @@
         <v>3842394</v>
       </c>
     </row>
-    <row r="453" spans="1:21">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A453" s="5" t="s">
         <v>449</v>
       </c>
@@ -22801,7 +22802,7 @@
         <v>3842425</v>
       </c>
     </row>
-    <row r="454" spans="1:21">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A454" s="5" t="s">
         <v>450</v>
       </c>
@@ -22830,7 +22831,7 @@
         <v>3842452</v>
       </c>
     </row>
-    <row r="455" spans="1:21">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A455" s="5" t="s">
         <v>451</v>
       </c>
@@ -22859,7 +22860,7 @@
         <v>3842454</v>
       </c>
     </row>
-    <row r="456" spans="1:21">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B456">
         <v>2867236</v>
       </c>
@@ -22885,7 +22886,7 @@
         <v>3842461</v>
       </c>
     </row>
-    <row r="457" spans="1:21">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B457">
         <v>2867240</v>
       </c>
@@ -22911,7 +22912,7 @@
         <v>3842581</v>
       </c>
     </row>
-    <row r="458" spans="1:21">
+    <row r="458" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B458">
         <v>2867245</v>
       </c>
@@ -22937,7 +22938,7 @@
         <v>3842582</v>
       </c>
     </row>
-    <row r="459" spans="1:21">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B459">
         <v>2867251</v>
       </c>
@@ -22963,7 +22964,7 @@
         <v>3842585</v>
       </c>
     </row>
-    <row r="460" spans="1:21">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B460">
         <v>2867254</v>
       </c>
@@ -22989,7 +22990,7 @@
         <v>3842636</v>
       </c>
     </row>
-    <row r="461" spans="1:21">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B461">
         <v>2867263</v>
       </c>
@@ -23015,7 +23016,7 @@
         <v>3842637</v>
       </c>
     </row>
-    <row r="462" spans="1:21">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B462">
         <v>2867333</v>
       </c>
@@ -23041,7 +23042,7 @@
         <v>3842652</v>
       </c>
     </row>
-    <row r="463" spans="1:21">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B463">
         <v>2983095</v>
       </c>
@@ -23067,7 +23068,7 @@
         <v>3842653</v>
       </c>
     </row>
-    <row r="464" spans="1:21">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B464">
         <v>2983613</v>
       </c>
@@ -23093,7 +23094,7 @@
         <v>3842655</v>
       </c>
     </row>
-    <row r="465" spans="2:21">
+    <row r="465" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B465">
         <v>308266</v>
       </c>
@@ -23119,7 +23120,7 @@
         <v>3842812</v>
       </c>
     </row>
-    <row r="466" spans="2:21">
+    <row r="466" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B466">
         <v>308312</v>
       </c>
@@ -23145,7 +23146,7 @@
         <v>3842841</v>
       </c>
     </row>
-    <row r="467" spans="2:21">
+    <row r="467" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B467">
         <v>3135912</v>
       </c>
@@ -23171,7 +23172,7 @@
         <v>3842976</v>
       </c>
     </row>
-    <row r="468" spans="2:21">
+    <row r="468" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B468">
         <v>3135950</v>
       </c>
@@ -23197,7 +23198,7 @@
         <v>3846667</v>
       </c>
     </row>
-    <row r="469" spans="2:21">
+    <row r="469" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B469">
         <v>3135951</v>
       </c>
@@ -23223,7 +23224,7 @@
         <v>3846687</v>
       </c>
     </row>
-    <row r="470" spans="2:21">
+    <row r="470" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B470">
         <v>3135961</v>
       </c>
@@ -23249,7 +23250,7 @@
         <v>3846751</v>
       </c>
     </row>
-    <row r="471" spans="2:21">
+    <row r="471" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B471">
         <v>3135962</v>
       </c>
@@ -23275,7 +23276,7 @@
         <v>3846777</v>
       </c>
     </row>
-    <row r="472" spans="2:21">
+    <row r="472" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B472">
         <v>3328495</v>
       </c>
@@ -23301,7 +23302,7 @@
         <v>3846886</v>
       </c>
     </row>
-    <row r="473" spans="2:21">
+    <row r="473" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B473">
         <v>332882</v>
       </c>
@@ -23327,7 +23328,7 @@
         <v>3846897</v>
       </c>
     </row>
-    <row r="474" spans="2:21">
+    <row r="474" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B474">
         <v>332916</v>
       </c>
@@ -23353,7 +23354,7 @@
         <v>3847087</v>
       </c>
     </row>
-    <row r="475" spans="2:21">
+    <row r="475" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B475">
         <v>332951</v>
       </c>
@@ -23379,7 +23380,7 @@
         <v>3847090</v>
       </c>
     </row>
-    <row r="476" spans="2:21">
+    <row r="476" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B476">
         <v>333044</v>
       </c>
@@ -23405,7 +23406,7 @@
         <v>3847099</v>
       </c>
     </row>
-    <row r="477" spans="2:21">
+    <row r="477" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B477">
         <v>333561</v>
       </c>
@@ -23431,7 +23432,7 @@
         <v>3847215</v>
       </c>
     </row>
-    <row r="478" spans="2:21">
+    <row r="478" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B478">
         <v>3336528</v>
       </c>
@@ -23457,7 +23458,7 @@
         <v>3847221</v>
       </c>
     </row>
-    <row r="479" spans="2:21">
+    <row r="479" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B479">
         <v>333892</v>
       </c>
@@ -23483,7 +23484,7 @@
         <v>3847235</v>
       </c>
     </row>
-    <row r="480" spans="2:21">
+    <row r="480" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B480">
         <v>3377271</v>
       </c>
@@ -23509,7 +23510,7 @@
         <v>3847243</v>
       </c>
     </row>
-    <row r="481" spans="2:21">
+    <row r="481" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B481">
         <v>3377275</v>
       </c>
@@ -23535,7 +23536,7 @@
         <v>3847247</v>
       </c>
     </row>
-    <row r="482" spans="2:21">
+    <row r="482" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B482">
         <v>3377281</v>
       </c>
@@ -23561,7 +23562,7 @@
         <v>3847258</v>
       </c>
     </row>
-    <row r="483" spans="2:21">
+    <row r="483" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B483">
         <v>3377294</v>
       </c>
@@ -23587,7 +23588,7 @@
         <v>3847259</v>
       </c>
     </row>
-    <row r="484" spans="2:21">
+    <row r="484" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B484">
         <v>3377305</v>
       </c>
@@ -23613,7 +23614,7 @@
         <v>3847261</v>
       </c>
     </row>
-    <row r="485" spans="2:21">
+    <row r="485" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B485">
         <v>3377314</v>
       </c>
@@ -23639,7 +23640,7 @@
         <v>3847264</v>
       </c>
     </row>
-    <row r="486" spans="2:21">
+    <row r="486" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B486">
         <v>3377320</v>
       </c>
@@ -23665,7 +23666,7 @@
         <v>3847265</v>
       </c>
     </row>
-    <row r="487" spans="2:21">
+    <row r="487" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B487">
         <v>3377326</v>
       </c>
@@ -23691,7 +23692,7 @@
         <v>3847267</v>
       </c>
     </row>
-    <row r="488" spans="2:21">
+    <row r="488" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B488">
         <v>3379708</v>
       </c>
@@ -23717,7 +23718,7 @@
         <v>3847274</v>
       </c>
     </row>
-    <row r="489" spans="2:21">
+    <row r="489" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B489">
         <v>3379712</v>
       </c>
@@ -23743,7 +23744,7 @@
         <v>3847288</v>
       </c>
     </row>
-    <row r="490" spans="2:21">
+    <row r="490" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B490">
         <v>3379718</v>
       </c>
@@ -23769,7 +23770,7 @@
         <v>3847364</v>
       </c>
     </row>
-    <row r="491" spans="2:21">
+    <row r="491" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B491">
         <v>3379731</v>
       </c>
@@ -23795,7 +23796,7 @@
         <v>3847367</v>
       </c>
     </row>
-    <row r="492" spans="2:21">
+    <row r="492" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B492">
         <v>3481475</v>
       </c>
@@ -23821,7 +23822,7 @@
         <v>3847378</v>
       </c>
     </row>
-    <row r="493" spans="2:21">
+    <row r="493" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B493">
         <v>3712372</v>
       </c>
@@ -23847,7 +23848,7 @@
         <v>3847380</v>
       </c>
     </row>
-    <row r="494" spans="2:21">
+    <row r="494" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B494">
         <v>3730466</v>
       </c>
@@ -23873,7 +23874,7 @@
         <v>3847562</v>
       </c>
     </row>
-    <row r="495" spans="2:21">
+    <row r="495" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B495">
         <v>3730642</v>
       </c>
@@ -23899,7 +23900,7 @@
         <v>3894588</v>
       </c>
     </row>
-    <row r="496" spans="2:21">
+    <row r="496" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B496">
         <v>3730741</v>
       </c>
@@ -23925,7 +23926,7 @@
         <v>3894589</v>
       </c>
     </row>
-    <row r="497" spans="2:21">
+    <row r="497" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B497">
         <v>3732139</v>
       </c>
@@ -23951,7 +23952,7 @@
         <v>3894593</v>
       </c>
     </row>
-    <row r="498" spans="2:21">
+    <row r="498" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B498">
         <v>3732194</v>
       </c>
@@ -23977,7 +23978,7 @@
         <v>3894625</v>
       </c>
     </row>
-    <row r="499" spans="2:21">
+    <row r="499" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B499">
         <v>3735673</v>
       </c>
@@ -24003,7 +24004,7 @@
         <v>3894678</v>
       </c>
     </row>
-    <row r="500" spans="2:21">
+    <row r="500" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B500">
         <v>3735677</v>
       </c>
@@ -24029,7 +24030,7 @@
         <v>3894725</v>
       </c>
     </row>
-    <row r="501" spans="2:21">
+    <row r="501" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B501">
         <v>3735709</v>
       </c>
@@ -24055,7 +24056,7 @@
         <v>3894732</v>
       </c>
     </row>
-    <row r="502" spans="2:21">
+    <row r="502" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B502">
         <v>3735749</v>
       </c>
@@ -24081,7 +24082,7 @@
         <v>3894771</v>
       </c>
     </row>
-    <row r="503" spans="2:21">
+    <row r="503" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B503">
         <v>3735813</v>
       </c>
@@ -24107,7 +24108,7 @@
         <v>3894773</v>
       </c>
     </row>
-    <row r="504" spans="2:21">
+    <row r="504" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B504">
         <v>3735899</v>
       </c>
@@ -24133,7 +24134,7 @@
         <v>3894784</v>
       </c>
     </row>
-    <row r="505" spans="2:21">
+    <row r="505" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B505">
         <v>3735925</v>
       </c>
@@ -24159,7 +24160,7 @@
         <v>3894785</v>
       </c>
     </row>
-    <row r="506" spans="2:21">
+    <row r="506" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B506">
         <v>3735931</v>
       </c>
@@ -24185,7 +24186,7 @@
         <v>3894790</v>
       </c>
     </row>
-    <row r="507" spans="2:21">
+    <row r="507" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B507">
         <v>3735967</v>
       </c>
@@ -24211,7 +24212,7 @@
         <v>3894791</v>
       </c>
     </row>
-    <row r="508" spans="2:21">
+    <row r="508" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B508">
         <v>3736024</v>
       </c>
@@ -24237,7 +24238,7 @@
         <v>3894818</v>
       </c>
     </row>
-    <row r="509" spans="2:21">
+    <row r="509" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B509">
         <v>3736179</v>
       </c>
@@ -24263,7 +24264,7 @@
         <v>3894872</v>
       </c>
     </row>
-    <row r="510" spans="2:21">
+    <row r="510" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B510">
         <v>3736261</v>
       </c>
@@ -24289,7 +24290,7 @@
         <v>3894874</v>
       </c>
     </row>
-    <row r="511" spans="2:21">
+    <row r="511" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B511">
         <v>3750805</v>
       </c>
@@ -24315,7 +24316,7 @@
         <v>3894875</v>
       </c>
     </row>
-    <row r="512" spans="2:21">
+    <row r="512" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B512">
         <v>3750808</v>
       </c>
@@ -24341,7 +24342,7 @@
         <v>3895055</v>
       </c>
     </row>
-    <row r="513" spans="2:21">
+    <row r="513" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B513">
         <v>3750812</v>
       </c>
@@ -24367,7 +24368,7 @@
         <v>3895269</v>
       </c>
     </row>
-    <row r="514" spans="2:21">
+    <row r="514" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B514">
         <v>3750853</v>
       </c>
@@ -24393,7 +24394,7 @@
         <v>3895281</v>
       </c>
     </row>
-    <row r="515" spans="2:21">
+    <row r="515" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B515">
         <v>3750860</v>
       </c>
@@ -24419,7 +24420,7 @@
         <v>3895282</v>
       </c>
     </row>
-    <row r="516" spans="2:21">
+    <row r="516" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B516">
         <v>3752573</v>
       </c>
@@ -24445,7 +24446,7 @@
         <v>3895399</v>
       </c>
     </row>
-    <row r="517" spans="2:21">
+    <row r="517" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B517">
         <v>3752588</v>
       </c>
@@ -24471,7 +24472,7 @@
         <v>3895400</v>
       </c>
     </row>
-    <row r="518" spans="2:21">
+    <row r="518" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B518">
         <v>3752594</v>
       </c>
@@ -24497,7 +24498,7 @@
         <v>3895403</v>
       </c>
     </row>
-    <row r="519" spans="2:21">
+    <row r="519" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B519">
         <v>3752975</v>
       </c>
@@ -24523,7 +24524,7 @@
         <v>4060334</v>
       </c>
     </row>
-    <row r="520" spans="2:21">
+    <row r="520" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B520">
         <v>3753116</v>
       </c>
@@ -24549,7 +24550,7 @@
         <v>4060420</v>
       </c>
     </row>
-    <row r="521" spans="2:21">
+    <row r="521" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B521">
         <v>3753693</v>
       </c>
@@ -24575,7 +24576,7 @@
         <v>4060469</v>
       </c>
     </row>
-    <row r="522" spans="2:21">
+    <row r="522" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B522">
         <v>3841662</v>
       </c>
@@ -24601,7 +24602,7 @@
         <v>4060472</v>
       </c>
     </row>
-    <row r="523" spans="2:21">
+    <row r="523" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B523">
         <v>3841663</v>
       </c>
@@ -24627,7 +24628,7 @@
         <v>4313156</v>
       </c>
     </row>
-    <row r="524" spans="2:21">
+    <row r="524" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B524">
         <v>3842445</v>
       </c>
@@ -24635,7 +24636,7 @@
         <v>3247851</v>
       </c>
     </row>
-    <row r="525" spans="2:21">
+    <row r="525" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B525">
         <v>3842452</v>
       </c>
@@ -24643,7 +24644,7 @@
         <v>3247853</v>
       </c>
     </row>
-    <row r="526" spans="2:21">
+    <row r="526" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B526">
         <v>3842555</v>
       </c>
@@ -24651,7 +24652,7 @@
         <v>3247856</v>
       </c>
     </row>
-    <row r="527" spans="2:21">
+    <row r="527" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B527">
         <v>3842557</v>
       </c>
@@ -24659,7 +24660,7 @@
         <v>3247874</v>
       </c>
     </row>
-    <row r="528" spans="2:21">
+    <row r="528" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B528">
         <v>3842558</v>
       </c>
@@ -24667,7 +24668,7 @@
         <v>3247877</v>
       </c>
     </row>
-    <row r="529" spans="2:18">
+    <row r="529" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B529">
         <v>3842559</v>
       </c>
@@ -24675,7 +24676,7 @@
         <v>3247883</v>
       </c>
     </row>
-    <row r="530" spans="2:18">
+    <row r="530" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B530">
         <v>3842566</v>
       </c>
@@ -24683,7 +24684,7 @@
         <v>3842620</v>
       </c>
     </row>
-    <row r="531" spans="2:18">
+    <row r="531" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B531">
         <v>3842567</v>
       </c>
@@ -24691,7 +24692,7 @@
         <v>3842625</v>
       </c>
     </row>
-    <row r="532" spans="2:18">
+    <row r="532" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B532">
         <v>3842620</v>
       </c>
@@ -24699,7 +24700,7 @@
         <v>3844992</v>
       </c>
     </row>
-    <row r="533" spans="2:18">
+    <row r="533" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B533">
         <v>3842625</v>
       </c>
@@ -24707,7 +24708,7 @@
         <v>1313338</v>
       </c>
     </row>
-    <row r="534" spans="2:18">
+    <row r="534" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B534">
         <v>3842669</v>
       </c>
@@ -24715,7 +24716,7 @@
         <v>1993808</v>
       </c>
     </row>
-    <row r="535" spans="2:18">
+    <row r="535" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B535">
         <v>3842670</v>
       </c>
@@ -24723,7 +24724,7 @@
         <v>2296042</v>
       </c>
     </row>
-    <row r="536" spans="2:18">
+    <row r="536" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B536">
         <v>3842674</v>
       </c>
@@ -24731,7 +24732,7 @@
         <v>2296297</v>
       </c>
     </row>
-    <row r="537" spans="2:18">
+    <row r="537" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B537">
         <v>3842682</v>
       </c>
@@ -24739,7 +24740,7 @@
         <v>2300237</v>
       </c>
     </row>
-    <row r="538" spans="2:18">
+    <row r="538" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B538">
         <v>3842690</v>
       </c>
@@ -24747,7 +24748,7 @@
         <v>336428</v>
       </c>
     </row>
-    <row r="539" spans="2:18">
+    <row r="539" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B539">
         <v>3847511</v>
       </c>
@@ -24755,7 +24756,7 @@
         <v>336431</v>
       </c>
     </row>
-    <row r="540" spans="2:18">
+    <row r="540" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B540">
         <v>3895247</v>
       </c>
@@ -24763,7 +24764,7 @@
         <v>336439</v>
       </c>
     </row>
-    <row r="541" spans="2:18">
+    <row r="541" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B541">
         <v>3895257</v>
       </c>
@@ -24771,7 +24772,7 @@
         <v>336441</v>
       </c>
     </row>
-    <row r="542" spans="2:18">
+    <row r="542" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B542">
         <v>3895269</v>
       </c>
@@ -24779,7 +24780,7 @@
         <v>336442</v>
       </c>
     </row>
-    <row r="543" spans="2:18">
+    <row r="543" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B543">
         <v>3895281</v>
       </c>
@@ -24787,7 +24788,7 @@
         <v>336449</v>
       </c>
     </row>
-    <row r="544" spans="2:18">
+    <row r="544" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B544">
         <v>3895282</v>
       </c>
@@ -24795,7 +24796,7 @@
         <v>595374</v>
       </c>
     </row>
-    <row r="545" spans="2:18">
+    <row r="545" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B545">
         <v>3942239</v>
       </c>
@@ -24803,7 +24804,7 @@
         <v>336451</v>
       </c>
     </row>
-    <row r="546" spans="2:18">
+    <row r="546" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B546">
         <v>3942377</v>
       </c>
@@ -24811,7 +24812,7 @@
         <v>336452</v>
       </c>
     </row>
-    <row r="547" spans="2:18">
+    <row r="547" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B547">
         <v>3942481</v>
       </c>
@@ -24819,7 +24820,7 @@
         <v>336459</v>
       </c>
     </row>
-    <row r="548" spans="2:18">
+    <row r="548" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B548">
         <v>3942640</v>
       </c>
@@ -24827,7 +24828,7 @@
         <v>336473</v>
       </c>
     </row>
-    <row r="549" spans="2:18">
+    <row r="549" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B549">
         <v>3943019</v>
       </c>
@@ -24835,7 +24836,7 @@
         <v>3135962</v>
       </c>
     </row>
-    <row r="550" spans="2:18">
+    <row r="550" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B550">
         <v>4253290</v>
       </c>
@@ -24843,7 +24844,7 @@
         <v>3135961</v>
       </c>
     </row>
-    <row r="551" spans="2:18">
+    <row r="551" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B551">
         <v>4254078</v>
       </c>
@@ -24851,7 +24852,7 @@
         <v>2945042</v>
       </c>
     </row>
-    <row r="552" spans="2:18">
+    <row r="552" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B552">
         <v>4254265</v>
       </c>
@@ -24859,7 +24860,7 @@
         <v>2945044</v>
       </c>
     </row>
-    <row r="553" spans="2:18">
+    <row r="553" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B553">
         <v>4318703</v>
       </c>
@@ -24867,7 +24868,7 @@
         <v>2296425</v>
       </c>
     </row>
-    <row r="554" spans="2:18">
+    <row r="554" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B554">
         <v>4385916</v>
       </c>
@@ -24875,7 +24876,7 @@
         <v>2296441</v>
       </c>
     </row>
-    <row r="555" spans="2:18">
+    <row r="555" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B555">
         <v>4385933</v>
       </c>
@@ -24883,7 +24884,7 @@
         <v>2296442</v>
       </c>
     </row>
-    <row r="556" spans="2:18">
+    <row r="556" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B556">
         <v>4385937</v>
       </c>
@@ -24891,7 +24892,7 @@
         <v>2296444</v>
       </c>
     </row>
-    <row r="557" spans="2:18">
+    <row r="557" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B557">
         <v>4385946</v>
       </c>
@@ -24899,7 +24900,7 @@
         <v>2296445</v>
       </c>
     </row>
-    <row r="558" spans="2:18">
+    <row r="558" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B558">
         <v>4386108</v>
       </c>
@@ -24907,7 +24908,7 @@
         <v>2296447</v>
       </c>
     </row>
-    <row r="559" spans="2:18">
+    <row r="559" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B559">
         <v>4386142</v>
       </c>
@@ -24915,7 +24916,7 @@
         <v>2296448</v>
       </c>
     </row>
-    <row r="560" spans="2:18">
+    <row r="560" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B560">
         <v>473767</v>
       </c>
@@ -24923,7 +24924,7 @@
         <v>2296456</v>
       </c>
     </row>
-    <row r="561" spans="2:18">
+    <row r="561" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B561">
         <v>473822</v>
       </c>
@@ -24931,7 +24932,7 @@
         <v>2296457</v>
       </c>
     </row>
-    <row r="562" spans="2:18">
+    <row r="562" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B562">
         <v>473833</v>
       </c>
@@ -24939,7 +24940,7 @@
         <v>2296465</v>
       </c>
     </row>
-    <row r="563" spans="2:18">
+    <row r="563" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B563">
         <v>473968</v>
       </c>
@@ -24947,7 +24948,7 @@
         <v>2296469</v>
       </c>
     </row>
-    <row r="564" spans="2:18">
+    <row r="564" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B564">
         <v>473969</v>
       </c>
@@ -24955,7 +24956,7 @@
         <v>2296472</v>
       </c>
     </row>
-    <row r="565" spans="2:18">
+    <row r="565" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B565">
         <v>473971</v>
       </c>
@@ -24963,7 +24964,7 @@
         <v>2296473</v>
       </c>
     </row>
-    <row r="566" spans="2:18">
+    <row r="566" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B566">
         <v>475888</v>
       </c>
@@ -24971,7 +24972,7 @@
         <v>2030466</v>
       </c>
     </row>
-    <row r="567" spans="2:18">
+    <row r="567" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B567">
         <v>475899</v>
       </c>
@@ -24979,7 +24980,7 @@
         <v>2030469</v>
       </c>
     </row>
-    <row r="568" spans="2:18">
+    <row r="568" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B568">
         <v>476034</v>
       </c>
@@ -24987,7 +24988,7 @@
         <v>2030472</v>
       </c>
     </row>
-    <row r="569" spans="2:18">
+    <row r="569" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B569">
         <v>476035</v>
       </c>
@@ -24995,7 +24996,7 @@
         <v>2030518</v>
       </c>
     </row>
-    <row r="570" spans="2:18">
+    <row r="570" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B570">
         <v>476037</v>
       </c>
@@ -25003,7 +25004,7 @@
         <v>2030521</v>
       </c>
     </row>
-    <row r="571" spans="2:18">
+    <row r="571" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B571">
         <v>891011</v>
       </c>
@@ -25011,7 +25012,7 @@
         <v>2030604</v>
       </c>
     </row>
-    <row r="572" spans="2:18">
+    <row r="572" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B572" s="9" t="s">
         <v>476</v>
       </c>
@@ -25019,7 +25020,7 @@
         <v>425193</v>
       </c>
     </row>
-    <row r="573" spans="2:18">
+    <row r="573" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B573" s="9" t="s">
         <v>744</v>
       </c>
@@ -25027,7 +25028,7 @@
         <v>4254069</v>
       </c>
     </row>
-    <row r="574" spans="2:18">
+    <row r="574" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B574" s="9" t="s">
         <v>1187</v>
       </c>
@@ -25035,7 +25036,7 @@
         <v>2306276</v>
       </c>
     </row>
-    <row r="575" spans="2:18">
+    <row r="575" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B575" s="9" t="s">
         <v>562</v>
       </c>
@@ -25043,52 +25044,52 @@
         <v>3730648</v>
       </c>
     </row>
-    <row r="576" spans="2:18">
+    <row r="576" spans="2:18" x14ac:dyDescent="0.2">
       <c r="R576" s="7">
         <v>3732376</v>
       </c>
     </row>
-    <row r="577" spans="18:18">
+    <row r="577" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R577" s="7">
         <v>2626011</v>
       </c>
     </row>
-    <row r="578" spans="18:18">
+    <row r="578" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R578" s="7">
         <v>3846948</v>
       </c>
     </row>
-    <row r="579" spans="18:18">
+    <row r="579" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R579" s="7">
         <v>3847563</v>
       </c>
     </row>
-    <row r="580" spans="18:18">
+    <row r="580" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R580" s="7">
         <v>3847578</v>
       </c>
     </row>
-    <row r="581" spans="18:18">
+    <row r="581" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R581" s="7">
         <v>3847579</v>
       </c>
     </row>
-    <row r="582" spans="18:18">
+    <row r="582" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R582" s="7">
         <v>3847581</v>
       </c>
     </row>
-    <row r="583" spans="18:18">
+    <row r="583" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R583" s="7">
         <v>3847595</v>
       </c>
     </row>
-    <row r="584" spans="18:18">
+    <row r="584" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R584" s="7">
         <v>3847596</v>
       </c>
     </row>
-    <row r="585" spans="18:18">
+    <row r="585" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R585" s="7">
         <v>3847600</v>
       </c>
